--- a/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>CVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>255300</v>
+      </c>
+      <c r="E8" s="3">
         <v>273700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>268700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>264000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>241100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>233700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>241500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>246400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>242500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>221400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>206800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>198000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>202300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>188300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>203400</v>
+      </c>
+      <c r="E9" s="3">
         <v>213900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>210200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>203700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>185300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>184700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>192100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>194900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>188200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>171500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>166000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>164900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>155900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>158800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E10" s="3">
         <v>59800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>58500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>60300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>55800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>49000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>49400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>51500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>54300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>49900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>34500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>42000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>42100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>43500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,16 +1006,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
-      </c>
-      <c r="E14" s="3">
-        <v>800</v>
       </c>
       <c r="F14" s="3">
         <v>800</v>
@@ -1007,16 +1027,16 @@
         <v>800</v>
       </c>
       <c r="H14" s="3">
+        <v>800</v>
+      </c>
+      <c r="I14" s="3">
         <v>1300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>240900</v>
+      </c>
+      <c r="E17" s="3">
         <v>250700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>246300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>239000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>216800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>215500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>222100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>224100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>216600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>197600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>192100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>191200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>181000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>184800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E18" s="3">
         <v>23000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>25000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>24300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>18200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>25900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>23800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,37 +1245,38 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1100</v>
       </c>
       <c r="M20" s="3">
         <v>1100</v>
@@ -1251,101 +1285,107 @@
         <v>1100</v>
       </c>
       <c r="O20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E21" s="3">
         <v>26800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>19100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>21600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>32800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>18500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>900</v>
       </c>
       <c r="I22" s="3">
         <v>900</v>
       </c>
       <c r="J22" s="3">
+        <v>900</v>
+      </c>
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1000</v>
       </c>
       <c r="N22" s="3">
         <v>1000</v>
       </c>
       <c r="O22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="P22" s="3">
         <v>1100</v>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E23" s="3">
         <v>24700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>27300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>27400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>24100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>3800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>20900</v>
+        <v>12000</v>
       </c>
       <c r="E26" s="3">
         <v>20900</v>
       </c>
       <c r="F26" s="3">
+        <v>20900</v>
+      </c>
+      <c r="G26" s="3">
         <v>21300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>13400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20900</v>
+        <v>12000</v>
       </c>
       <c r="E27" s="3">
         <v>20900</v>
       </c>
       <c r="F27" s="3">
+        <v>20900</v>
+      </c>
+      <c r="G27" s="3">
         <v>21300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>13400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,13 +1693,16 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1649,11 +1710,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>-300</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1661,14 +1722,14 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>3100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1700</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,37 +1843,40 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1100</v>
       </c>
       <c r="M32" s="3">
         <v>-1100</v>
@@ -1815,63 +1885,69 @@
         <v>-1100</v>
       </c>
       <c r="O32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20900</v>
+        <v>12000</v>
       </c>
       <c r="E33" s="3">
         <v>20900</v>
       </c>
       <c r="F33" s="3">
+        <v>20900</v>
+      </c>
+      <c r="G33" s="3">
         <v>21300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20900</v>
+        <v>12000</v>
       </c>
       <c r="E35" s="3">
         <v>20900</v>
       </c>
       <c r="F35" s="3">
+        <v>20900</v>
+      </c>
+      <c r="G35" s="3">
         <v>21300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,410 +2140,435 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>241800</v>
+      </c>
+      <c r="E41" s="3">
         <v>216900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>190500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>199800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>187400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>192900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>195500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>177500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>186800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>139000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>136800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>129500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>132500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>119700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E42" s="3">
         <v>13900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>13400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>13200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>12600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>10600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>13500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E43" s="3">
         <v>92000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>98100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>89700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>86000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>79500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>80300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>85300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>71600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>80500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>77800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>75000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>70300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>73400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>113500</v>
+      </c>
+      <c r="E44" s="3">
         <v>110100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>115200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>118500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>116200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>115400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>111500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>110400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>109200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>105900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>101500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>99100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>93900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>86600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E45" s="3">
         <v>69000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>69500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>57800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>59900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>51400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>47900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>41800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>57100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>40600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>48800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>42600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>516200</v>
+      </c>
+      <c r="E46" s="3">
         <v>502000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>486600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>479000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>462000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>449700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>448700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>429200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>418600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>384000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>387400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>356600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>356800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>334600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>112600</v>
+      </c>
+      <c r="E47" s="3">
         <v>113000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>114400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>117400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>116600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>117900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>118100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>116300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>108500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>117500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>119200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>114600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>112800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>109800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>91100</v>
+      </c>
+      <c r="E48" s="3">
         <v>82100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>81900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>76600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>63500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>66400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>65100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>64000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>63400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>59000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>58700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>57600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>57000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>56900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E49" s="3">
         <v>90000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>90500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>82600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>82700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>82800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>82900</v>
       </c>
       <c r="J49" s="3">
         <v>82900</v>
       </c>
       <c r="K49" s="3">
-        <v>83000</v>
+        <v>82900</v>
       </c>
       <c r="L49" s="3">
         <v>83000</v>
@@ -2466,19 +2577,22 @@
         <v>83000</v>
       </c>
       <c r="N49" s="3">
+        <v>83000</v>
+      </c>
+      <c r="O49" s="3">
         <v>80100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>80000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>80100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,13 +2688,16 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
@@ -2589,19 +2709,19 @@
         <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
       </c>
       <c r="J52" s="3">
+        <v>500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>700</v>
       </c>
       <c r="M52" s="3">
         <v>700</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>810400</v>
+      </c>
+      <c r="E54" s="3">
         <v>787400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>773800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>756100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>725200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>717200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>715200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>693600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>674800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>644200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>649100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>609700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>607300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>582100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E57" s="3">
         <v>27100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>24600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>25300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>24000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="E58" s="3">
         <v>1900</v>
       </c>
       <c r="F58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G58" s="3">
         <v>20100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>20600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>40700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>42100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>25400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E59" s="3">
         <v>132900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>137900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>130400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>124100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>125100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>129000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>125600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>125300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>122500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>139700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>110100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>109800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>103100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>172100</v>
+      </c>
+      <c r="E60" s="3">
         <v>161800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>169700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>175300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>174000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>186100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>196700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>175600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>176300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>149300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>172100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>142400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>140200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>125800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E61" s="3">
         <v>14100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>33900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>51500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>53100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>51400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>51600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>51700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>7000</v>
       </c>
       <c r="H62" s="3">
         <v>7000</v>
       </c>
       <c r="I62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J62" s="3">
         <v>8600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>202800</v>
+      </c>
+      <c r="E66" s="3">
         <v>192100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>200800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>205700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>195600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>208100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>220500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>217900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>217700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>208600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>236100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>205200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>212900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>198100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>355100</v>
+      </c>
+      <c r="E72" s="3">
         <v>343100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>322200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>301400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>280100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>260100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>246700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>231100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>209400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>187600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>166100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>160000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>148100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>137300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>607600</v>
+      </c>
+      <c r="E76" s="3">
         <v>595300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>573000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>550300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>529600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>509100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>494700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>475700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>457100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>435600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>413000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>404400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>394400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>384000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>371000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20900</v>
+        <v>12000</v>
       </c>
       <c r="E81" s="3">
         <v>20900</v>
       </c>
       <c r="F81" s="3">
+        <v>20900</v>
+      </c>
+      <c r="G81" s="3">
         <v>21300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,10 +4035,10 @@
         <v>1600</v>
       </c>
       <c r="E83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F83" s="3">
         <v>1400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1200</v>
       </c>
       <c r="G83" s="3">
         <v>1200</v>
@@ -3851,13 +4050,13 @@
         <v>1200</v>
       </c>
       <c r="J83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K83" s="3">
         <v>1100</v>
       </c>
       <c r="L83" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M83" s="3">
         <v>1000</v>
@@ -3866,7 +4065,7 @@
         <v>1000</v>
       </c>
       <c r="O83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="P83" s="3">
         <v>900</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E89" s="3">
         <v>24700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>26800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>19900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>43400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1200</v>
       </c>
       <c r="M91" s="3">
         <v>-1200</v>
       </c>
       <c r="N91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1600</v>
       </c>
       <c r="J94" s="3">
         <v>-1600</v>
       </c>
       <c r="K94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L94" s="3">
         <v>1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-20600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E102" s="3">
         <v>24400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>47800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>CVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>254800</v>
+      </c>
+      <c r="E8" s="3">
         <v>255300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>273700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>268700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>264000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>241100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>233700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>241500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>246400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>242500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>221400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>206800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>198000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>202300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>188300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>199500</v>
+      </c>
+      <c r="E9" s="3">
         <v>203400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>213900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>210200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>203700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>185300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>184700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>192100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>194900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>188200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>171500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>166000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>164900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>155900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>158800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E10" s="3">
         <v>51900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>59800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>58500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>60300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>55800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>49000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>49400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>54300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>49900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>34500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>42000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>42100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>43500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,19 +1026,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>900</v>
-      </c>
-      <c r="F14" s="3">
-        <v>800</v>
       </c>
       <c r="G14" s="3">
         <v>800</v>
@@ -1030,16 +1050,16 @@
         <v>800</v>
       </c>
       <c r="I14" s="3">
+        <v>800</v>
+      </c>
+      <c r="J14" s="3">
         <v>1300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>234800</v>
+      </c>
+      <c r="E17" s="3">
         <v>240900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>250700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>246300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>239000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>216800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>215500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>222100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>224100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>216600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>197600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>192100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>191200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>181000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>184800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E18" s="3">
         <v>14400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>23000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>25000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>24300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>18200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>25900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>23800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>15600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,40 +1279,41 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5900</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1100</v>
       </c>
       <c r="N20" s="3">
         <v>1100</v>
@@ -1288,66 +1322,72 @@
         <v>1100</v>
       </c>
       <c r="P20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E21" s="3">
         <v>15400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>26800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>21600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>32800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>17700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>18500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>19300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1355,40 +1395,40 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>900</v>
       </c>
       <c r="J22" s="3">
         <v>900</v>
       </c>
       <c r="K22" s="3">
+        <v>900</v>
+      </c>
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1000</v>
       </c>
       <c r="O22" s="3">
         <v>1000</v>
       </c>
       <c r="P22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q22" s="3">
         <v>1100</v>
@@ -1396,108 +1436,117 @@
       <c r="R22" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E23" s="3">
         <v>13600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>27300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>27400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>30700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>16500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E26" s="3">
         <v>12000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>20900</v>
       </c>
       <c r="F26" s="3">
         <v>20900</v>
       </c>
       <c r="G26" s="3">
+        <v>20900</v>
+      </c>
+      <c r="H26" s="3">
         <v>21300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>13400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E27" s="3">
         <v>12000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>20900</v>
       </c>
       <c r="F27" s="3">
         <v>20900</v>
       </c>
       <c r="G27" s="3">
+        <v>20900</v>
+      </c>
+      <c r="H27" s="3">
         <v>21300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>13400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,16 +1754,19 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1713,11 +1774,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-300</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1725,14 +1786,14 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>3100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1700</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,40 +1913,43 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5900</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1100</v>
       </c>
       <c r="N32" s="3">
         <v>-1100</v>
@@ -1888,66 +1958,72 @@
         <v>-1100</v>
       </c>
       <c r="P32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E33" s="3">
         <v>12000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>20900</v>
       </c>
       <c r="F33" s="3">
         <v>20900</v>
       </c>
       <c r="G33" s="3">
+        <v>20900</v>
+      </c>
+      <c r="H33" s="3">
         <v>21300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>20000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>13400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E35" s="3">
         <v>12000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>20900</v>
       </c>
       <c r="F35" s="3">
         <v>20900</v>
       </c>
       <c r="G35" s="3">
+        <v>20900</v>
+      </c>
+      <c r="H35" s="3">
         <v>21300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,437 +2227,462 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>270500</v>
+      </c>
+      <c r="E41" s="3">
         <v>241800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>216900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>190500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>199800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>187400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>192900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>195500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>177500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>186800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>139000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>136800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>129500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>132500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>119700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E42" s="3">
         <v>14600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>13900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>13400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>13200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>12600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>10600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>13500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E43" s="3">
         <v>90600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>92000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>98100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>89700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>86000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>79500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>80300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>85300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>71600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>80500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>77800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>75000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>70300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>73400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>106400</v>
+      </c>
+      <c r="E44" s="3">
         <v>113500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>110100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>115200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>118500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>116200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>115400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>111500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>110400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>109200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>105900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>101500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>99100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>93900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>86600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E45" s="3">
         <v>55600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>69000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>69500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>57800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>59900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>51400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>47900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>41800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>44100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>57100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>40600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>48800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>42600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>548000</v>
+      </c>
+      <c r="E46" s="3">
         <v>516200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>502000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>486600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>479000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>462000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>449700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>448700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>429200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>418600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>384000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>387400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>356600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>356800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>334600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>104200</v>
+      </c>
+      <c r="E47" s="3">
         <v>112600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>113000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>114400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>117400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>116600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>117900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>118100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>116300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>108500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>117500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>119200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>114600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>112800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>109800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E48" s="3">
         <v>91100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>82100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>81900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>76600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>63500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>66400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>65100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>64000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>63400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>59000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>58700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>57600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>57000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>56900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E49" s="3">
         <v>90200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>90000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>90500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>82600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>82700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>82800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>82900</v>
       </c>
       <c r="K49" s="3">
         <v>82900</v>
       </c>
       <c r="L49" s="3">
-        <v>83000</v>
+        <v>82900</v>
       </c>
       <c r="M49" s="3">
         <v>83000</v>
@@ -2580,19 +2691,22 @@
         <v>83000</v>
       </c>
       <c r="O49" s="3">
+        <v>83000</v>
+      </c>
+      <c r="P49" s="3">
         <v>80100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>80000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>80100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2700,7 +2820,7 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -2712,19 +2832,19 @@
         <v>400</v>
       </c>
       <c r="I52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
       </c>
       <c r="K52" s="3">
+        <v>500</v>
+      </c>
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>700</v>
       </c>
       <c r="N52" s="3">
         <v>700</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>838300</v>
+      </c>
+      <c r="E54" s="3">
         <v>810400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>787400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>773800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>756100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>725200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>717200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>715200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>693600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>674800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>644200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>649100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>609700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>607300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>582100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3011,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E57" s="3">
         <v>29900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>29300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>24000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2940,249 +3074,264 @@
         <v>2200</v>
       </c>
       <c r="E58" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="F58" s="3">
         <v>1900</v>
       </c>
       <c r="G58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H58" s="3">
         <v>20100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>20600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>40700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>42100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>25400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>27200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E59" s="3">
         <v>139900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>132900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>137900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>130400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>124100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>125100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>129000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>125600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>125300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>122500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>139700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>110100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>109800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>103100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>179100</v>
+      </c>
+      <c r="E60" s="3">
         <v>172100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>161800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>169700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>175300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>174000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>186100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>196700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>175600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>176300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>149300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>172100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>142400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>140200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>125800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E61" s="3">
         <v>12700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>51500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>53100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>51400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>51600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>51700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E62" s="3">
         <v>18000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>7000</v>
       </c>
       <c r="I62" s="3">
         <v>7000</v>
       </c>
       <c r="J62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K62" s="3">
         <v>8600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>20700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>214200</v>
+      </c>
+      <c r="E66" s="3">
         <v>202800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>192100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>200800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>205700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>195600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>208100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>220500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>217900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>217700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>208600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>236100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>205200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>212900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>198100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>371100</v>
+      </c>
+      <c r="E72" s="3">
         <v>355100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>343100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>322200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>301400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>280100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>260100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>246700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>231100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>209400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>187600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>166100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>160000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>148100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>137300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>624000</v>
+      </c>
+      <c r="E76" s="3">
         <v>607600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>595300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>573000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>550300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>529600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>509100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>494700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>475700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>457100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>435600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>413000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>404400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>394400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>384000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>371000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E81" s="3">
         <v>12000</v>
-      </c>
-      <c r="E81" s="3">
-        <v>20900</v>
       </c>
       <c r="F81" s="3">
         <v>20900</v>
       </c>
       <c r="G81" s="3">
+        <v>20900</v>
+      </c>
+      <c r="H81" s="3">
         <v>21300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>20000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>13400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4038,10 +4237,10 @@
         <v>1600</v>
       </c>
       <c r="F83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G83" s="3">
         <v>1400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1200</v>
       </c>
       <c r="H83" s="3">
         <v>1200</v>
@@ -4053,13 +4252,13 @@
         <v>1200</v>
       </c>
       <c r="K83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="L83" s="3">
         <v>1100</v>
       </c>
       <c r="M83" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="N83" s="3">
         <v>1000</v>
@@ -4068,7 +4267,7 @@
         <v>1000</v>
       </c>
       <c r="P83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q83" s="3">
         <v>900</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E89" s="3">
         <v>33400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>19900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>43400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1200</v>
       </c>
       <c r="N91" s="3">
         <v>-1200</v>
       </c>
       <c r="O91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-1200</v>
       </c>
       <c r="R91" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1600</v>
       </c>
       <c r="K94" s="3">
         <v>-1600</v>
       </c>
       <c r="L94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M94" s="3">
         <v>1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-20600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E102" s="3">
         <v>25300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>24400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>47800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>CVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E8" s="3">
         <v>254800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>255300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>273700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>268700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>264000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>241100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>233700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>241500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>246400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>242500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>221400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>206800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>198000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>202300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>188300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>204400</v>
+      </c>
+      <c r="E9" s="3">
         <v>199500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>203400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>213900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>210200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>203700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>185300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>184700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>192100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>194900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>188200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>171500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>166000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>164900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>155900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>158800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E10" s="3">
         <v>55300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>51900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>59800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>58500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>60300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>55800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>49000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>49400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>51500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>54300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>49900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>34500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>42000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>42100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>43500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,22 +1046,25 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
-      </c>
-      <c r="G14" s="3">
-        <v>800</v>
       </c>
       <c r="H14" s="3">
         <v>800</v>
@@ -1053,16 +1073,16 @@
         <v>800</v>
       </c>
       <c r="J14" s="3">
+        <v>800</v>
+      </c>
+      <c r="K14" s="3">
         <v>1300</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>239900</v>
+      </c>
+      <c r="E17" s="3">
         <v>234800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>240900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>250700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>246300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>239000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>216800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>215500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>222100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>224100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>216600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>197600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>192100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>191200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>181000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>184800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E18" s="3">
         <v>20000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>22400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>25000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>24300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>18200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>25900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>23800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>15600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,43 +1313,44 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5900</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1100</v>
       </c>
       <c r="O20" s="3">
         <v>1100</v>
@@ -1325,69 +1359,75 @@
         <v>1100</v>
       </c>
       <c r="Q20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E21" s="3">
         <v>23500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>26800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>27900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>32800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>25900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>17700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>18500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1398,40 +1438,40 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>900</v>
       </c>
       <c r="K22" s="3">
         <v>900</v>
       </c>
       <c r="L22" s="3">
+        <v>900</v>
+      </c>
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1000</v>
       </c>
       <c r="P22" s="3">
         <v>1000</v>
       </c>
       <c r="Q22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="R22" s="3">
         <v>1100</v>
@@ -1439,114 +1479,123 @@
       <c r="S22" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E23" s="3">
         <v>21700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>24700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>27300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>27400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>30700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>16500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E24" s="3">
         <v>5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E26" s="3">
         <v>16700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>20900</v>
       </c>
       <c r="G26" s="3">
         <v>20900</v>
       </c>
       <c r="H26" s="3">
+        <v>20900</v>
+      </c>
+      <c r="I26" s="3">
         <v>21300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>20300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E27" s="3">
         <v>16700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>20900</v>
       </c>
       <c r="G27" s="3">
         <v>20900</v>
       </c>
       <c r="H27" s="3">
+        <v>20900</v>
+      </c>
+      <c r="I27" s="3">
         <v>21300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>20300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,19 +1815,22 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1777,11 +1838,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-300</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1789,14 +1850,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>3100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1700</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,43 +1983,46 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5900</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1100</v>
       </c>
       <c r="O32" s="3">
         <v>-1100</v>
@@ -1961,69 +2031,75 @@
         <v>-1100</v>
       </c>
       <c r="Q32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E33" s="3">
         <v>16700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>20900</v>
       </c>
       <c r="G33" s="3">
         <v>20900</v>
       </c>
       <c r="H33" s="3">
+        <v>20900</v>
+      </c>
+      <c r="I33" s="3">
         <v>21300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>20000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>22100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E35" s="3">
         <v>16700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>20900</v>
       </c>
       <c r="G35" s="3">
         <v>20900</v>
       </c>
       <c r="H35" s="3">
+        <v>20900</v>
+      </c>
+      <c r="I35" s="3">
         <v>21300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>20000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>22100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,464 +2314,489 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>312200</v>
+      </c>
+      <c r="E41" s="3">
         <v>270500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>241800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>216900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>190500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>199800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>187400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>192900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>195500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>177500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>186800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>139000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>136800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>129500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>132500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>119700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E42" s="3">
         <v>16400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>13900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>13400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>13200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>12600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>10600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>12200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>90800</v>
+      </c>
+      <c r="E43" s="3">
         <v>97400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>90600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>92000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>98100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>89700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>86000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>79500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>80300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>85300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>71600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>80500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>77800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>75000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>70300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>73400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>111900</v>
+      </c>
+      <c r="E44" s="3">
         <v>106400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>113500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>110100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>115200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>118500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>116200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>115400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>111500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>110400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>109200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>105900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>101500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>99100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>93900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>86600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E45" s="3">
         <v>57200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>55600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>69000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>69500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>57800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>59900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>51400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>47900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>41800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>44100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>57100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>40600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>48800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>42600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>597400</v>
+      </c>
+      <c r="E46" s="3">
         <v>548000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>516200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>502000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>486600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>479000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>462000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>449700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>448700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>429200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>418600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>384000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>387400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>356600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>356800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>334600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E47" s="3">
         <v>104200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>112600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>113000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>114400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>117400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>116600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>117900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>118100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>116300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>108500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>117500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>119200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>114600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>112800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>109800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>95300</v>
+      </c>
+      <c r="E48" s="3">
         <v>95700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>91100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>82100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>81900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>76600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>63500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>66400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>65100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>64000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>63400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>59000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>58700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>57600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>57000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>56900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>89800</v>
+      </c>
+      <c r="E49" s="3">
         <v>90000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>90200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>90000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>90500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>82600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>82700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>82800</v>
-      </c>
-      <c r="K49" s="3">
-        <v>82900</v>
       </c>
       <c r="L49" s="3">
         <v>82900</v>
       </c>
       <c r="M49" s="3">
-        <v>83000</v>
+        <v>82900</v>
       </c>
       <c r="N49" s="3">
         <v>83000</v>
@@ -2694,19 +2805,22 @@
         <v>83000</v>
       </c>
       <c r="P49" s="3">
+        <v>83000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>80100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>80000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>80100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2928,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2823,7 +2943,7 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -2835,19 +2955,19 @@
         <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>500</v>
       </c>
       <c r="L52" s="3">
+        <v>500</v>
+      </c>
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>700</v>
       </c>
       <c r="O52" s="3">
         <v>700</v>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>882500</v>
+      </c>
+      <c r="E54" s="3">
         <v>838300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>810400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>787400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>773800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>756100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>725200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>717200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>715200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>693600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>674800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>644200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>649100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>609700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>607300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>582100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3142,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E57" s="3">
         <v>34700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>29300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>25000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>24000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E58" s="3">
         <v>2200</v>
       </c>
       <c r="F58" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="G58" s="3">
         <v>1900</v>
       </c>
       <c r="H58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I58" s="3">
         <v>20100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>40700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>42100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>27200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>173200</v>
+      </c>
+      <c r="E59" s="3">
         <v>142200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>139900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>132900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>137900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>130400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>124100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>125100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>129000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>125600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>125300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>122500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>139700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>110100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>109800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>103100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>208200</v>
+      </c>
+      <c r="E60" s="3">
         <v>179100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>172100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>161800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>169700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>175300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>174000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>186100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>196700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>175600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>176300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>149300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>172100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>142400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>140200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>125800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E61" s="3">
         <v>12300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>51500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>53100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>51400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>51600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>51700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E62" s="3">
         <v>22900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>7000</v>
       </c>
       <c r="J62" s="3">
         <v>7000</v>
       </c>
       <c r="K62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L62" s="3">
         <v>8600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>20700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>241800</v>
+      </c>
+      <c r="E66" s="3">
         <v>214200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>202800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>192100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>200800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>205700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>195600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>208100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>220500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>217900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>217700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>208600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>236100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>205200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>212900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>198100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>386100</v>
+      </c>
+      <c r="E72" s="3">
         <v>371100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>355100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>343100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>322200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>301400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>280100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>260100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>246700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>231100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>209400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>187600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>166100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>160000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>148100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>137300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>640700</v>
+      </c>
+      <c r="E76" s="3">
         <v>624000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>607600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>595300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>573000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>550300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>529600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>509100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>494700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>475700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>457100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>435600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>413000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>404400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>394400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>384000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>371000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E81" s="3">
         <v>16700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>20900</v>
       </c>
       <c r="G81" s="3">
         <v>20900</v>
       </c>
       <c r="H81" s="3">
+        <v>20900</v>
+      </c>
+      <c r="I81" s="3">
         <v>21300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>20000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>22100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4240,10 +4439,10 @@
         <v>1600</v>
       </c>
       <c r="G83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H83" s="3">
         <v>1400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1200</v>
       </c>
       <c r="I83" s="3">
         <v>1200</v>
@@ -4255,13 +4454,13 @@
         <v>1200</v>
       </c>
       <c r="L83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M83" s="3">
         <v>1100</v>
       </c>
       <c r="N83" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="O83" s="3">
         <v>1000</v>
@@ -4270,7 +4469,7 @@
         <v>1000</v>
       </c>
       <c r="Q83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="R83" s="3">
         <v>900</v>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E89" s="3">
         <v>35700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>33400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>19900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>43400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4837,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4626,52 +4847,55 @@
         <v>-1900</v>
       </c>
       <c r="E91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1200</v>
       </c>
       <c r="O91" s="3">
         <v>-1200</v>
       </c>
       <c r="P91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-1200</v>
       </c>
       <c r="S91" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-1600</v>
       </c>
       <c r="L94" s="3">
         <v>-1600</v>
       </c>
       <c r="M94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N94" s="3">
         <v>1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5305,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-20600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E102" s="3">
         <v>34900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>25300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>24400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>47800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>CVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,270 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>288800</v>
+      </c>
+      <c r="E8" s="3">
         <v>258000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>254800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>255300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>273700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>268700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>264000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>241100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>233700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>241500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>246400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>242500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>221400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>206800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>198000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>202300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>188300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>229500</v>
+      </c>
+      <c r="E9" s="3">
         <v>204400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>199500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>203400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>213900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>210200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>203700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>185300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>184700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>192100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>194900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>188200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>171500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>166000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>164900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>155900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>158800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E10" s="3">
         <v>53600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>55300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>51900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>59800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>58500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>60300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>55800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>49000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>49400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>51500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>54300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>49900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>34500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>42000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>42100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>43500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,25 +1065,28 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
-      </c>
-      <c r="H14" s="3">
-        <v>800</v>
       </c>
       <c r="I14" s="3">
         <v>800</v>
@@ -1076,16 +1095,16 @@
         <v>800</v>
       </c>
       <c r="K14" s="3">
+        <v>800</v>
+      </c>
+      <c r="L14" s="3">
         <v>1300</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1105,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>264900</v>
+      </c>
+      <c r="E17" s="3">
         <v>239900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>234800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>240900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>250700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>246300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>239000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>216800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>215500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>222100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>224100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>216600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>197600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>192100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>191200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>181000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>184800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E18" s="3">
         <v>18100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>20000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>25000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>24300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>25900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>23800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,46 +1346,47 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1100</v>
       </c>
       <c r="P20" s="3">
         <v>1100</v>
@@ -1362,72 +1395,78 @@
         <v>1100</v>
       </c>
       <c r="R20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E21" s="3">
         <v>21400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>23500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>26800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>27900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>32800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>25900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>17700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>18500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>19300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1441,40 +1480,40 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>900</v>
       </c>
       <c r="L22" s="3">
         <v>900</v>
       </c>
       <c r="M22" s="3">
+        <v>900</v>
+      </c>
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1000</v>
       </c>
       <c r="Q22" s="3">
         <v>1000</v>
       </c>
       <c r="R22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="S22" s="3">
         <v>1100</v>
@@ -1482,120 +1521,129 @@
       <c r="T22" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E23" s="3">
         <v>19600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>27300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>27400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>30700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>16500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E24" s="3">
         <v>4500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E26" s="3">
         <v>15000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>20900</v>
       </c>
       <c r="H26" s="3">
         <v>20900</v>
       </c>
       <c r="I26" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J26" s="3">
         <v>21300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>20300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E27" s="3">
         <v>15000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>20900</v>
       </c>
       <c r="H27" s="3">
         <v>20900</v>
       </c>
       <c r="I27" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J27" s="3">
         <v>21300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>20300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1829,11 +1889,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1841,11 +1901,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-300</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1853,14 +1913,14 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>3100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1700</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,46 +2052,49 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1100</v>
       </c>
       <c r="P32" s="3">
         <v>-1100</v>
@@ -2034,72 +2103,78 @@
         <v>-1100</v>
       </c>
       <c r="R32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E33" s="3">
         <v>15000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>20900</v>
       </c>
       <c r="H33" s="3">
         <v>20900</v>
       </c>
       <c r="I33" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J33" s="3">
         <v>21300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>20000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>22100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>21400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E35" s="3">
         <v>15000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>20900</v>
       </c>
       <c r="H35" s="3">
         <v>20900</v>
       </c>
       <c r="I35" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J35" s="3">
         <v>21300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>20000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>22100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>21400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,491 +2400,516 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>327500</v>
+      </c>
+      <c r="E41" s="3">
         <v>312200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>270500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>241800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>216900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>190500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>199800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>187400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>192900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>195500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>177500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>186800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>139000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>136800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>129500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>132500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>119700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E42" s="3">
         <v>16600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>16400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>14600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>13900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>13400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>13200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>12600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>11300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>12200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E43" s="3">
         <v>90800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>97400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>90600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>92000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>98100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>89700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>86000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>79500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>80300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>85300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>71600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>80500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>77800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>75000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>70300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>73400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E44" s="3">
         <v>111900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>106400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>113500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>110100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>115200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>118500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>116200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>115400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>111500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>110400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>109200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>105900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>101500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>99100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>93900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>86600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E45" s="3">
         <v>65900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>57200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>55600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>69000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>69500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>57800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>59900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>51400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>47900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>41800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>39200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>44100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>57100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>40600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>48800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>42600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>625700</v>
+      </c>
+      <c r="E46" s="3">
         <v>597400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>548000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>516200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>502000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>486600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>479000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>462000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>449700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>448700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>429200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>418600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>384000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>387400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>356600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>356800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>334600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E47" s="3">
         <v>99600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>104200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>112600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>113000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>114400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>117400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>116600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>117900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>118100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>116300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>108500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>117500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>119200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>114600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>112800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>109800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>95200</v>
+      </c>
+      <c r="E48" s="3">
         <v>95300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>95700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>91100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>82100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>81900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>76600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>63500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>66400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>65100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>64000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>63400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>59000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>58700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>57600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>57000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>56900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E49" s="3">
         <v>89800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>90000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>90200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>90000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>90500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>82600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>82700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>82800</v>
-      </c>
-      <c r="L49" s="3">
-        <v>82900</v>
       </c>
       <c r="M49" s="3">
         <v>82900</v>
       </c>
       <c r="N49" s="3">
-        <v>83000</v>
+        <v>82900</v>
       </c>
       <c r="O49" s="3">
         <v>83000</v>
@@ -2808,19 +2918,22 @@
         <v>83000</v>
       </c>
       <c r="Q49" s="3">
+        <v>83000</v>
+      </c>
+      <c r="R49" s="3">
         <v>80100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>80000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>80100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2946,7 +3065,7 @@
         <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -2958,19 +3077,19 @@
         <v>400</v>
       </c>
       <c r="K52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>500</v>
       </c>
       <c r="M52" s="3">
+        <v>500</v>
+      </c>
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>700</v>
       </c>
       <c r="P52" s="3">
         <v>700</v>
@@ -2987,8 +3106,11 @@
       <c r="T52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>906600</v>
+      </c>
+      <c r="E54" s="3">
         <v>882500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>838300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>810400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>787400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>773800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>756100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>725200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>717200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>715200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>693600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>674800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>644200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>649100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>609700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>607300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>582100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E57" s="3">
         <v>32900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>29900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>24800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>25700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>24600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>23800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>25300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>25000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>24000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3208,279 +3341,294 @@
         <v>2100</v>
       </c>
       <c r="E58" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F58" s="3">
         <v>2200</v>
       </c>
       <c r="G58" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="H58" s="3">
         <v>1900</v>
       </c>
       <c r="I58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J58" s="3">
         <v>20100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>20600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>40700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>42100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>25400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>27200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E59" s="3">
         <v>173200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>142200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>139900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>132900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>137900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>130400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>124100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>125100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>129000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>125600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>125300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>122500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>139700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>110100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>109800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>103100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>213300</v>
+      </c>
+      <c r="E60" s="3">
         <v>208200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>179100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>172100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>161800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>169700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>175300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>174000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>186100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>196700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>175600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>176300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>149300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>172100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>142400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>140200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>125800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E61" s="3">
         <v>11900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>51500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>53100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>51400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>51600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>51700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E62" s="3">
         <v>21700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>7000</v>
       </c>
       <c r="K62" s="3">
         <v>7000</v>
       </c>
       <c r="L62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M62" s="3">
         <v>8600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>20700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>244800</v>
+      </c>
+      <c r="E66" s="3">
         <v>241800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>214200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>202800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>192100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>205700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>195600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>208100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>220500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>217900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>217700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>208600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>236100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>205200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>212900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>198100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>405800</v>
+      </c>
+      <c r="E72" s="3">
         <v>386100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>371100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>355100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>343100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>322200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>301400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>280100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>260100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>246700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>231100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>209400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>187600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>166100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>160000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>148100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>137300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>661700</v>
+      </c>
+      <c r="E76" s="3">
         <v>640700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>624000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>607600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>595300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>573000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>550300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>529600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>509100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>494700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>475700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>457100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>435600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>413000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>404400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>394400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>384000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>371000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E81" s="3">
         <v>15000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>20900</v>
       </c>
       <c r="H81" s="3">
         <v>20900</v>
       </c>
       <c r="I81" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J81" s="3">
         <v>21300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>20000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>22100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>21400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4442,10 +4640,10 @@
         <v>1600</v>
       </c>
       <c r="H83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I83" s="3">
         <v>1400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1200</v>
       </c>
       <c r="J83" s="3">
         <v>1200</v>
@@ -4457,13 +4655,13 @@
         <v>1200</v>
       </c>
       <c r="M83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="N83" s="3">
         <v>1100</v>
       </c>
       <c r="O83" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="P83" s="3">
         <v>1000</v>
@@ -4472,7 +4670,7 @@
         <v>1000</v>
       </c>
       <c r="R83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="S83" s="3">
         <v>900</v>
@@ -4480,8 +4678,11 @@
       <c r="T83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E89" s="3">
         <v>38900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>35700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>33400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>24700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>43400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="E91" s="3">
         <v>-1900</v>
       </c>
       <c r="F91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G91" s="3">
         <v>-7900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-1200</v>
       </c>
       <c r="P91" s="3">
         <v>-1200</v>
       </c>
       <c r="Q91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-1200</v>
       </c>
       <c r="T91" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-1600</v>
       </c>
       <c r="M94" s="3">
         <v>-1600</v>
       </c>
       <c r="N94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O94" s="3">
         <v>1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-17200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-20600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E102" s="3">
         <v>38800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>34900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>25300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>24400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>47800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>CVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,296 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="F7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>330400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>306500</v>
+      </c>
+      <c r="F8" s="3">
         <v>288800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>258000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>254800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>255300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>273700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>268700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>264000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>241100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>233700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>241500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>246400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>242500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>221400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>200500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>206800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>198000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>202300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>188300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>256400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>235600</v>
+      </c>
+      <c r="F9" s="3">
         <v>229500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>204400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>199500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>203400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>213900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>210200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>203700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>185300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>184700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>192100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>194900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>188200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>171500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>166000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>164900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>155900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>158800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>70900</v>
+      </c>
+      <c r="F10" s="3">
         <v>59300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>53600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>55300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>51900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>59800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>58500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>60300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>55800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>49000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>49400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>51500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>54300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>49900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>34500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>42000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>42100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>43500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +976,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1037,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,50 +1102,56 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
-      </c>
-      <c r="I14" s="3">
-        <v>800</v>
-      </c>
-      <c r="J14" s="3">
-        <v>800</v>
       </c>
       <c r="K14" s="3">
         <v>800</v>
       </c>
       <c r="L14" s="3">
+        <v>800</v>
+      </c>
+      <c r="M14" s="3">
+        <v>800</v>
+      </c>
+      <c r="N14" s="3">
         <v>1300</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1127,8 +1167,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1232,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1258,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>297200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>279600</v>
+      </c>
+      <c r="F17" s="3">
         <v>264900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>239900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>234800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>240900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>250700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>246300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>239000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>216800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>215500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>222100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>224100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>216600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>197600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>192100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>191200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>181000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>184800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F18" s="3">
         <v>23900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>18100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>20000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>14400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>23000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>22400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>25000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>24300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>18200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>19400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>22300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>25900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>23800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>8400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>15600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>17000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>17500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1413,140 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>5100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5900</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1100</v>
       </c>
       <c r="R20" s="3">
         <v>1100</v>
       </c>
       <c r="S20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>31500</v>
+      </c>
+      <c r="F21" s="3">
         <v>27600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>21400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>23500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>15400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>26800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>29000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>29100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>27900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>19100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>21600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>26200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>32800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>25900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>10500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>17700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>18500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>19300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1483,167 +1563,185 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>500</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
+        <v>500</v>
+      </c>
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>1100</v>
       </c>
       <c r="U22" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W22" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>29700</v>
+      </c>
+      <c r="F23" s="3">
         <v>25900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>19600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>21700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>13600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>24700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>27300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>27400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>26100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>16900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>19500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>24100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>30700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>23700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>8500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>15700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>16500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>17300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6200</v>
+        <v>8400</v>
       </c>
       <c r="E24" s="3">
         <v>4500</v>
       </c>
       <c r="F24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H24" s="3">
         <v>5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>6100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>5800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>4400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>11700</v>
-      </c>
-      <c r="P24" s="3">
-        <v>3900</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>2300</v>
       </c>
       <c r="R24" s="3">
         <v>3900</v>
       </c>
       <c r="S24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="U24" s="3">
         <v>5600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>5000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1799,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F26" s="3">
         <v>19700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>15000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>16700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>12000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>20900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>20900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>21300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>20300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>13400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>15600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>19700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>19000</v>
       </c>
       <c r="P26" s="3">
         <v>19700</v>
       </c>
       <c r="Q26" s="3">
+        <v>19000</v>
+      </c>
+      <c r="R26" s="3">
+        <v>19700</v>
+      </c>
+      <c r="S26" s="3">
         <v>6200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>11800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>10900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>12300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F27" s="3">
         <v>19700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>15000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>16700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>12000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>20900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>20900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>21300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>20300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>13400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>15600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>19700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>19000</v>
       </c>
       <c r="P27" s="3">
         <v>19700</v>
       </c>
       <c r="Q27" s="3">
+        <v>19000</v>
+      </c>
+      <c r="R27" s="3">
+        <v>19700</v>
+      </c>
+      <c r="S27" s="3">
         <v>6200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>11800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>10900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>12300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1994,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1892,41 +2014,41 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>-300</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>-300</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>3100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +2059,14 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2189,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-5100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5900</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-1100</v>
       </c>
       <c r="R32" s="3">
         <v>-1100</v>
       </c>
       <c r="S32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F33" s="3">
         <v>19700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>15000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>16700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>12000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>20900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>20900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>21300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>20000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>13400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>15600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>19700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>22100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>21400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>6200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>11800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>10900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>12300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2384,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F35" s="3">
         <v>19700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>15000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>16700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>12000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>20900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>20900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>21300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>20000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>13400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>15600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>19700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>22100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>21400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>6200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>11800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>10900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>12300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="F38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,539 +2573,595 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>329800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>322300</v>
+      </c>
+      <c r="F41" s="3">
         <v>327500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>312200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>270500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>241800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>216900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>190500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>199800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>187400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>192900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>195500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>177500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>186800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>139000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>136800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>129500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>132500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>119700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F42" s="3">
         <v>17000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>16600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>16400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>14600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>13900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>13400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>13200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>12600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>10600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>13500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>14300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>11900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>14500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>14200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>12400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>11300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>12200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>104300</v>
+      </c>
+      <c r="F43" s="3">
         <v>102000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>90800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>97400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>90600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>92000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>98100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>89700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>86000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>79500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>80300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>85300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>71600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>80500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>77800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>75000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>70300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>73400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>150900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>131200</v>
+      </c>
+      <c r="F44" s="3">
         <v>110600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>111900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>106400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>113500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>110100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>115200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>118500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>116200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>115400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>111500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>110400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>109200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>105900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>101500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>99100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>93900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>86600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>74500</v>
+      </c>
+      <c r="F45" s="3">
         <v>68600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>65900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>57200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>55600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>69000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>69500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>57800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>59900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>51400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>47900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>41800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>39200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>44100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>57100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>40600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>48800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>42600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>667900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>651800</v>
+      </c>
+      <c r="F46" s="3">
         <v>625700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>597400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>548000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>516200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>502000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>486600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>479000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>462000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>449700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>448700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>429200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>418600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>384000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>387400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>356600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>356800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>334600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>97200</v>
+      </c>
+      <c r="F47" s="3">
         <v>95700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>99600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>104200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>112600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>113000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>114400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>117400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>116600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>117900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>118100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>116300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>108500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>117500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>119200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>114600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>112800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>109800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>114100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>113000</v>
+      </c>
+      <c r="F48" s="3">
         <v>95200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>95300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>95700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>91100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>82100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>81900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>76600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>63500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>66400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>65100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>64000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>63400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>59000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>58700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>57600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>57000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>56900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>89500</v>
+      </c>
+      <c r="F49" s="3">
         <v>89600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>89800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>90000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>90200</v>
       </c>
       <c r="H49" s="3">
         <v>90000</v>
       </c>
       <c r="I49" s="3">
+        <v>90200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K49" s="3">
         <v>90500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>82600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>82700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>82800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>82900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>82900</v>
-      </c>
-      <c r="O49" s="3">
-        <v>83000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>83000</v>
       </c>
       <c r="Q49" s="3">
         <v>83000</v>
       </c>
       <c r="R49" s="3">
-        <v>80100</v>
+        <v>83000</v>
       </c>
       <c r="S49" s="3">
-        <v>80000</v>
+        <v>83000</v>
       </c>
       <c r="T49" s="3">
         <v>80100</v>
       </c>
       <c r="U49" s="3">
+        <v>80000</v>
+      </c>
+      <c r="V49" s="3">
+        <v>80100</v>
+      </c>
+      <c r="W49" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3284,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3068,10 +3308,10 @@
         <v>300</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
@@ -3080,22 +3320,22 @@
         <v>400</v>
       </c>
       <c r="L52" s="3">
+        <v>400</v>
+      </c>
+      <c r="M52" s="3">
+        <v>400</v>
+      </c>
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>700</v>
       </c>
       <c r="R52" s="3">
         <v>700</v>
@@ -3109,8 +3349,14 @@
       <c r="U52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>700</v>
+      </c>
+      <c r="W52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3414,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>970900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>951800</v>
+      </c>
+      <c r="F54" s="3">
         <v>906600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>882500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>838300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>810400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>787400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>773800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>756100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>725200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>717200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>715200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>693600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>674800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>644200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>649100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>609700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>607300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>582100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3533,400 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>32100</v>
+      </c>
+      <c r="F57" s="3">
         <v>25200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>32900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>34700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>29900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>27100</v>
       </c>
       <c r="I57" s="3">
         <v>29900</v>
       </c>
       <c r="J57" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>29900</v>
+      </c>
+      <c r="L57" s="3">
         <v>24800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>29300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>20300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>25700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>24600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>23800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>19800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>25300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>25000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>24000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>16600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>20100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>20600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>40700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>42100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>25400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>27200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>6900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>7100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>7300</v>
-      </c>
-      <c r="S58" s="3">
-        <v>6400</v>
-      </c>
-      <c r="T58" s="3">
-        <v>6100</v>
       </c>
       <c r="U58" s="3">
         <v>6400</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="W58" s="3">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>210200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>203100</v>
+      </c>
+      <c r="F59" s="3">
         <v>186000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>173200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>142200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>139900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>132900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>137900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>130400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>124100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>125100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>129000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>125600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>125300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>122500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>139700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>110100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>109800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>103100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>242200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>237100</v>
+      </c>
+      <c r="F60" s="3">
         <v>213300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>208200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>179100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>172100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>161800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>169700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>175300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>174000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>186100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>196700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>175600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>176300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>149300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>172100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>142400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>140200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>125800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F61" s="3">
         <v>10800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>11900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>12300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>12700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>14100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>14400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>14200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>14600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>15000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>15200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>33900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>33800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>51500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>53100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>51400</v>
-      </c>
-      <c r="S61" s="3">
-        <v>51600</v>
-      </c>
-      <c r="T61" s="3">
-        <v>51700</v>
       </c>
       <c r="U61" s="3">
         <v>51600</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>51700</v>
+      </c>
+      <c r="W61" s="3">
+        <v>51600</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F62" s="3">
         <v>20600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>21700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>22900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>18000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>16200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>16800</v>
       </c>
       <c r="J62" s="3">
         <v>16200</v>
       </c>
       <c r="K62" s="3">
+        <v>16800</v>
+      </c>
+      <c r="L62" s="3">
+        <v>16200</v>
+      </c>
+      <c r="M62" s="3">
         <v>7000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>7000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>8600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>8400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>7600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>7800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>11000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>11400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>21100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>20700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4114,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>271800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>268200</v>
+      </c>
+      <c r="F66" s="3">
         <v>244800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>241800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>214200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>202800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>192100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>200800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>205700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>195600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>208100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>220500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>217900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>217700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>208600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>236100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>205200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>212900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>198100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4464,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>458100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>431100</v>
+      </c>
+      <c r="F72" s="3">
         <v>405800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>386100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>371100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>355100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>343100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>322200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>301400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>280100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>260100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>246700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>231100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>209400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>187600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>166100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>160000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>148100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>137300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4724,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>699100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>683600</v>
+      </c>
+      <c r="F76" s="3">
         <v>661700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>640700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>624000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>607600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>595300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>573000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>550300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>529600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>509100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>494700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>475700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>457100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>435600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>413000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>404400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>394400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>384000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>371000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4854,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="F80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F81" s="3">
         <v>19700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>15000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>16700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>12000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>20900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>20900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>21300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>20000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>13400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>15600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>19700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>22100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>21400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>6200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>11800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>10900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>12300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5018,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4643,13 +5041,13 @@
         <v>1600</v>
       </c>
       <c r="I83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1200</v>
       </c>
       <c r="L83" s="3">
         <v>1200</v>
@@ -4658,31 +5056,37 @@
         <v>1200</v>
       </c>
       <c r="N83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P83" s="3">
         <v>1100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>1000</v>
       </c>
       <c r="R83" s="3">
         <v>1000</v>
       </c>
       <c r="S83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="U83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>900</v>
+      </c>
+      <c r="W83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5404,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F89" s="3">
         <v>17000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>38900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>35700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>33400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>24700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>26800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>16800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>16500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>19900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>43400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>6700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>7000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>16000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>6400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5498,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-7900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-5400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5689,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-6400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-16800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>1900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-3400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5844,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +6039,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-17200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-20600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-4100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-2400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +6169,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F102" s="3">
         <v>11400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>38800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>34900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>25300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>24400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-7200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>13200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-5100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>18200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-7800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>47800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>6900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>12800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>4700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>12500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>CVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44191</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>359500</v>
+      </c>
+      <c r="E8" s="3">
         <v>330400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>306500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>288800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>258000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>254800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>255300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>273700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>268700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>264000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>241100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>233700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>241500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>246400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>242500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>221400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>200500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>206800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>198000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>202300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>188300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>269600</v>
+      </c>
+      <c r="E9" s="3">
         <v>256400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>235600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>229500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>204400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>199500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>203400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>213900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>210200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>203700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>185300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>184700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>192100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>194900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>188200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>171500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>166000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>164900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>155900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>158800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>89900</v>
+      </c>
+      <c r="E10" s="3">
         <v>74000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>70900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>59300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>53600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>55300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>51900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>59800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>58500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>60300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>55800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>49000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>49400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>51500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>54300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>49900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>34500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>42000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>42100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>43500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,34 +1125,37 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
-      </c>
-      <c r="K14" s="3">
-        <v>800</v>
       </c>
       <c r="L14" s="3">
         <v>800</v>
@@ -1144,16 +1164,16 @@
         <v>800</v>
       </c>
       <c r="N14" s="3">
+        <v>800</v>
+      </c>
+      <c r="O14" s="3">
         <v>1300</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1173,8 +1193,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>315000</v>
+      </c>
+      <c r="E17" s="3">
         <v>297200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>279600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>264900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>239900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>234800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>240900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>250700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>246300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>239000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>216800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>215500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>222100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>224100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>216600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>197600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>192100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>191200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>181000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>184800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E18" s="3">
         <v>33200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>18100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>20000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>23000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>25000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>22300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>25900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>23800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>15600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>17000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>17500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,55 +1448,56 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5900</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1100</v>
       </c>
       <c r="S20" s="3">
         <v>1100</v>
@@ -1472,81 +1506,87 @@
         <v>1100</v>
       </c>
       <c r="U20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E21" s="3">
         <v>37200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>31500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>21400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>23500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>15400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>29000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>27900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>19100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>26200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>32800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>25900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>17700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>18500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>19300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1569,40 +1609,40 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>900</v>
       </c>
       <c r="O22" s="3">
         <v>900</v>
       </c>
       <c r="P22" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>1000</v>
       </c>
       <c r="T22" s="3">
         <v>1000</v>
       </c>
       <c r="U22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="V22" s="3">
         <v>1100</v>
@@ -1610,138 +1650,147 @@
       <c r="W22" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E23" s="3">
         <v>35500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>25900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>24700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>27300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>27400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>30700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>23700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>15700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>16500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>17300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E24" s="3">
         <v>8400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E26" s="3">
         <v>27000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>25200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>20900</v>
       </c>
       <c r="K26" s="3">
         <v>20900</v>
       </c>
       <c r="L26" s="3">
+        <v>20900</v>
+      </c>
+      <c r="M26" s="3">
         <v>21300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>10900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E27" s="3">
         <v>27000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>25200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>20900</v>
       </c>
       <c r="K27" s="3">
         <v>20900</v>
       </c>
       <c r="L27" s="3">
+        <v>20900</v>
+      </c>
+      <c r="M27" s="3">
         <v>21300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>20300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>10900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>12300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2020,11 +2081,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2032,11 +2093,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-300</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2044,14 +2105,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>3100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1700</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,55 +2262,58 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5900</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-1100</v>
       </c>
       <c r="S32" s="3">
         <v>-1100</v>
@@ -2252,81 +2322,87 @@
         <v>-1100</v>
       </c>
       <c r="U32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E33" s="3">
         <v>27000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>25200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>20900</v>
       </c>
       <c r="K33" s="3">
         <v>20900</v>
       </c>
       <c r="L33" s="3">
+        <v>20900</v>
+      </c>
+      <c r="M33" s="3">
         <v>21300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>20000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>19700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>21400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>12300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E35" s="3">
         <v>27000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>25200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>20900</v>
       </c>
       <c r="K35" s="3">
         <v>20900</v>
       </c>
       <c r="L35" s="3">
+        <v>20900</v>
+      </c>
+      <c r="M35" s="3">
         <v>21300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>20000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>19700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>21400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>12300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44191</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,572 +2661,597 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>224300</v>
+      </c>
+      <c r="E41" s="3">
         <v>329800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>322300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>327500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>312200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>270500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>241800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>216900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>190500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>199800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>187400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>192900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>195500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>177500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>186800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>139000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>136800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>129500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>132500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>119700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E42" s="3">
         <v>19700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>19500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>17000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>16600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>13900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>12400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>12200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>130100</v>
+      </c>
+      <c r="E43" s="3">
         <v>102100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>104300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>102000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>90800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>97400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>90600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>92000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>98100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>89700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>86000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>79500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>80300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>85300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>71600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>80500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>77800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>75000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>70300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>73400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>190400</v>
+      </c>
+      <c r="E44" s="3">
         <v>150900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>131200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>110600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>111900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>106400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>113500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>110100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>115200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>118500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>116200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>115400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>111500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>110400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>109200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>105900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>101500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>99100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>93900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>86600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E45" s="3">
         <v>65300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>74500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>68600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>65900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>57200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>55600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>69000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>69500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>57800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>59900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>51400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>47900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>41800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>39200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>44100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>57100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>40600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>48800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>42600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>633000</v>
+      </c>
+      <c r="E46" s="3">
         <v>667900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>651800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>625700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>597400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>548000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>516200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>502000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>486600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>479000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>462000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>449700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>448700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>429200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>418600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>384000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>387400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>356600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>356800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>334600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E47" s="3">
         <v>99300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>97200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>95700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>99600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>104200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>112600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>113000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>114400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>117400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>116600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>117900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>118100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>116300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>108500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>117500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>119200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>114600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>112800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>109800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>173100</v>
+      </c>
+      <c r="E48" s="3">
         <v>114100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>113000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>95200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>95300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>95700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>91100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>82100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>81900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>76600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>63500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>66400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>65100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>64000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>63400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>59000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>58700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>57600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>57000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>56900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>141900</v>
+      </c>
+      <c r="E49" s="3">
         <v>89300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>89500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>89600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>89800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>90000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>90200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>90000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>90500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>82600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>82700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>82800</v>
-      </c>
-      <c r="O49" s="3">
-        <v>82900</v>
       </c>
       <c r="P49" s="3">
         <v>82900</v>
       </c>
       <c r="Q49" s="3">
-        <v>83000</v>
+        <v>82900</v>
       </c>
       <c r="R49" s="3">
         <v>83000</v>
@@ -3149,19 +3260,22 @@
         <v>83000</v>
       </c>
       <c r="T49" s="3">
+        <v>83000</v>
+      </c>
+      <c r="U49" s="3">
         <v>80100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>80000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>80100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3407,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3314,7 +3434,7 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
@@ -3326,19 +3446,19 @@
         <v>400</v>
       </c>
       <c r="N52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>500</v>
       </c>
       <c r="P52" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1300</v>
-      </c>
-      <c r="R52" s="3">
-        <v>700</v>
       </c>
       <c r="S52" s="3">
         <v>700</v>
@@ -3355,8 +3475,11 @@
       <c r="W52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1056400</v>
+      </c>
+      <c r="E54" s="3">
         <v>970900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>951800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>906600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>882500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>838300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>810400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>787400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>773800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>756100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>725200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>717200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>715200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>693600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>674800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>644200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>649100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>609700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>607300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>582100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,398 +3665,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E57" s="3">
         <v>30200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>29900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>24600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>23800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>25300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>25000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>24000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>16600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2100</v>
       </c>
       <c r="G58" s="3">
         <v>2100</v>
       </c>
       <c r="H58" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I58" s="3">
         <v>2200</v>
       </c>
       <c r="J58" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="K58" s="3">
         <v>1900</v>
       </c>
       <c r="L58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M58" s="3">
         <v>20100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>40700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>42100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>25400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>27200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>237500</v>
+      </c>
+      <c r="E59" s="3">
         <v>210200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>203100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>186000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>173200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>142200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>139900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>132900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>137900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>130400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>124100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>125100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>129000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>125600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>125300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>122500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>139700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>110100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>109800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>103100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>282300</v>
+      </c>
+      <c r="E60" s="3">
         <v>242200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>237100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>213300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>208200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>179100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>172100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>161800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>169700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>175300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>174000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>186100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>196700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>175600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>176300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>149300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>172100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>142400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>140200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>125800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E61" s="3">
         <v>9900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>11900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>33900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>51500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>53100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>51400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>51600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>51700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E62" s="3">
         <v>19700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>7000</v>
       </c>
       <c r="N62" s="3">
         <v>7000</v>
       </c>
       <c r="O62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P62" s="3">
         <v>8600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>21100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>20700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>323300</v>
+      </c>
+      <c r="E66" s="3">
         <v>271800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>268200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>244800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>241800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>214200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>202800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>192100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>200800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>205700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>195600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>208100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>220500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>217900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>217700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>208600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>236100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>205200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>212900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>198100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>495700</v>
+      </c>
+      <c r="E72" s="3">
         <v>458100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>431100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>405800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>386100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>371100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>355100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>343100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>322200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>301400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>280100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>260100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>246700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>231100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>209400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>187600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>166100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>160000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>148100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>137300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>733100</v>
+      </c>
+      <c r="E76" s="3">
         <v>699100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>683600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>661700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>640700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>624000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>607600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>595300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>573000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>550300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>529600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>509100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>494700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>475700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>457100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>435600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>413000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>404400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>394400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>384000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>371000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44191</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E81" s="3">
         <v>27000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>25200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>20900</v>
       </c>
       <c r="K81" s="3">
         <v>20900</v>
       </c>
       <c r="L81" s="3">
+        <v>20900</v>
+      </c>
+      <c r="M81" s="3">
         <v>21300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>20000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>19700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>21400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>12300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5218,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5047,10 +5246,10 @@
         <v>1600</v>
       </c>
       <c r="K83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L83" s="3">
         <v>1400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1200</v>
       </c>
       <c r="M83" s="3">
         <v>1200</v>
@@ -5062,13 +5261,13 @@
         <v>1200</v>
       </c>
       <c r="P83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="Q83" s="3">
         <v>1100</v>
       </c>
       <c r="R83" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="S83" s="3">
         <v>1000</v>
@@ -5077,7 +5276,7 @@
         <v>1000</v>
       </c>
       <c r="U83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="V83" s="3">
         <v>900</v>
@@ -5085,8 +5284,11 @@
       <c r="W83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E89" s="3">
         <v>24300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>22500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>38900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>35700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>33400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>19900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>43400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>16000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1900</v>
       </c>
       <c r="H91" s="3">
         <v>-1900</v>
       </c>
       <c r="I91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J91" s="3">
         <v>-7900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-1200</v>
       </c>
       <c r="S91" s="3">
         <v>-1200</v>
       </c>
       <c r="T91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-1200</v>
       </c>
       <c r="W91" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-152400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-1600</v>
       </c>
       <c r="P94" s="3">
         <v>-1600</v>
       </c>
       <c r="Q94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="R94" s="3">
         <v>1900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6288,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-13200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-17200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-20600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6424,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-102300</v>
+      </c>
+      <c r="E102" s="3">
         <v>7500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>38800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>34900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>25300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>24400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>47800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>12500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>CVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,321 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>431700</v>
+      </c>
+      <c r="E8" s="3">
         <v>359500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>330400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>306500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>288800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>258000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>254800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>255300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>273700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>268700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>264000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>241100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>233700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>241500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>246400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>242500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>221400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>206800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>198000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>202300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>188300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>316500</v>
+      </c>
+      <c r="E9" s="3">
         <v>269600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>256400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>235600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>229500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>204400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>199500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>203400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>213900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>210200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>203700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>185300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>184700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>192100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>194900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>188200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>171500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>166000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>164900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>155900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>158800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E10" s="3">
         <v>89900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>74000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>70900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>59300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>53600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>55300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>51900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>59800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>58500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>60300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>55800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>49000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>49400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>51500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>54300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>49900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>34500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>42000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>42100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>43500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1139,26 +1158,26 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
-      </c>
-      <c r="L14" s="3">
-        <v>800</v>
       </c>
       <c r="M14" s="3">
         <v>800</v>
@@ -1167,16 +1186,16 @@
         <v>800</v>
       </c>
       <c r="O14" s="3">
+        <v>800</v>
+      </c>
+      <c r="P14" s="3">
         <v>1300</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1196,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>376800</v>
+      </c>
+      <c r="E17" s="3">
         <v>315000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>297200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>279600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>264900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>239900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>234800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>240900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>250700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>246300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>239000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>216800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>215500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>222100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>224100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>216600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>197600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>192100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>191200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>181000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>184800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E18" s="3">
         <v>44500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>33200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>26900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>18100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>23000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>25000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>22300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>25900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>23800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>15600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>17000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>17500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,58 +1481,59 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E20" s="3">
         <v>4700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5900</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1100</v>
       </c>
       <c r="T20" s="3">
         <v>1100</v>
@@ -1509,84 +1542,90 @@
         <v>1100</v>
       </c>
       <c r="V20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E21" s="3">
         <v>50800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>37200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>31500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>21400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>23500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>29100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>27900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>19100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>26200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>32800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>25900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>17700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>18500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>19300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1612,40 +1651,40 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
-      </c>
-      <c r="O22" s="3">
-        <v>900</v>
       </c>
       <c r="P22" s="3">
         <v>900</v>
       </c>
       <c r="Q22" s="3">
+        <v>900</v>
+      </c>
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>1000</v>
       </c>
       <c r="U22" s="3">
         <v>1000</v>
       </c>
       <c r="V22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="W22" s="3">
         <v>1100</v>
@@ -1653,144 +1692,153 @@
       <c r="X22" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E23" s="3">
         <v>49000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>35500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>25900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>27300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>27400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>24100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>30700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>23700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>15700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>16500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>17300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E24" s="3">
         <v>11300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E26" s="3">
         <v>37700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>27000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>25200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>19700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>20900</v>
       </c>
       <c r="L26" s="3">
         <v>20900</v>
       </c>
       <c r="M26" s="3">
+        <v>20900</v>
+      </c>
+      <c r="N26" s="3">
         <v>21300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>19700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>10900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>12300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>79400</v>
+      </c>
+      <c r="E27" s="3">
         <v>37600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>27000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>25200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>20900</v>
       </c>
       <c r="L27" s="3">
         <v>20900</v>
       </c>
       <c r="M27" s="3">
+        <v>20900</v>
+      </c>
+      <c r="N27" s="3">
         <v>21300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>20300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>19700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>12300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2084,11 +2144,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2096,11 +2156,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-300</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2108,14 +2168,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>3100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1700</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2129,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,58 +2331,61 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5900</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-1100</v>
       </c>
       <c r="T32" s="3">
         <v>-1100</v>
@@ -2325,84 +2394,90 @@
         <v>-1100</v>
       </c>
       <c r="V32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>79400</v>
+      </c>
+      <c r="E33" s="3">
         <v>37600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>27000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>25200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>20900</v>
       </c>
       <c r="L33" s="3">
         <v>20900</v>
       </c>
       <c r="M33" s="3">
+        <v>20900</v>
+      </c>
+      <c r="N33" s="3">
         <v>21300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>20000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>21400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>12300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>79400</v>
+      </c>
+      <c r="E35" s="3">
         <v>37600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>27000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>25200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>20900</v>
       </c>
       <c r="L35" s="3">
         <v>20900</v>
       </c>
       <c r="M35" s="3">
+        <v>20900</v>
+      </c>
+      <c r="N35" s="3">
         <v>21300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>20000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>21400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>12300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,599 +2747,624 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>267300</v>
+      </c>
+      <c r="E41" s="3">
         <v>224300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>329800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>322300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>327500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>312200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>270500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>241800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>216900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>190500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>199800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>187400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>192900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>195500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>177500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>186800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>139000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>136800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>129500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>132500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>119700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E42" s="3">
         <v>18900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>19700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>19500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>17000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>16400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>11900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>12400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>11300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>12200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>119500</v>
+      </c>
+      <c r="E43" s="3">
         <v>130100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>102100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>104300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>102000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>90800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>97400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>90600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>92000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>98100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>89700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>86000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>79500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>80300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>85300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>71600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>80500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>77800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>75000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>70300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>73400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200300</v>
+      </c>
+      <c r="E44" s="3">
         <v>190400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>150900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>131200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>110600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>111900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>106400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>113500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>110100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>115200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>118500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>116200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>115400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>111500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>110400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>109200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>105900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>101500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>99100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>93900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>86600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>95400</v>
+      </c>
+      <c r="E45" s="3">
         <v>69300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>65300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>74500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>68600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>65900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>57200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>55600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>69000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>69500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>57800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>59900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>51400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>47900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>41800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>39200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>44100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>57100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>40600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>48800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>42600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>703500</v>
+      </c>
+      <c r="E46" s="3">
         <v>633000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>667900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>651800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>625700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>597400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>548000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>516200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>502000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>486600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>479000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>462000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>449700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>448700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>429200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>418600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>384000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>387400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>356600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>356800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>334600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E47" s="3">
         <v>108100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>99300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>97200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>95700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>99600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>104200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>112600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>113000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>114400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>117400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>116600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>117900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>118100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>116300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>108500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>117500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>119200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>114600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>112800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>109800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E48" s="3">
         <v>173100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>114100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>113000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>95200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>95300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>95700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>91100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>82100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>81900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>76600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>63500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>66400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>65100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>64000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>63400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>59000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>58700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>57600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>57000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>56900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>130900</v>
+      </c>
+      <c r="E49" s="3">
         <v>141900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>89300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>89500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>89600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>89800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>90000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>90200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>90000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>90500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>82600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>82700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>82800</v>
-      </c>
-      <c r="P49" s="3">
-        <v>82900</v>
       </c>
       <c r="Q49" s="3">
         <v>82900</v>
       </c>
       <c r="R49" s="3">
-        <v>83000</v>
+        <v>82900</v>
       </c>
       <c r="S49" s="3">
         <v>83000</v>
@@ -3263,19 +3373,22 @@
         <v>83000</v>
       </c>
       <c r="U49" s="3">
+        <v>83000</v>
+      </c>
+      <c r="V49" s="3">
         <v>80100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>80000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>80100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3437,7 +3556,7 @@
         <v>300</v>
       </c>
       <c r="K52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
@@ -3449,19 +3568,19 @@
         <v>400</v>
       </c>
       <c r="O52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>500</v>
       </c>
       <c r="Q52" s="3">
+        <v>500</v>
+      </c>
+      <c r="R52" s="3">
         <v>1100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1300</v>
-      </c>
-      <c r="S52" s="3">
-        <v>700</v>
       </c>
       <c r="T52" s="3">
         <v>700</v>
@@ -3478,8 +3597,11 @@
       <c r="X52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1112200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1056400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>970900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>951800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>906600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>882500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>838300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>810400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>787400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>773800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>756100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>725200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>717200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>715200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>693600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>674800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>644200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>649100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>609700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>607300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>582100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,416 +3795,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E57" s="3">
         <v>42500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>24800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>29300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>25700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>24600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>23800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>25300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>25000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>24000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>16600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2100</v>
       </c>
       <c r="H58" s="3">
         <v>2100</v>
       </c>
       <c r="I58" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J58" s="3">
         <v>2200</v>
       </c>
       <c r="K58" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="L58" s="3">
         <v>1900</v>
       </c>
       <c r="M58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N58" s="3">
         <v>20100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>20600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>40700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>42100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>25400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>27200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>238200</v>
+      </c>
+      <c r="E59" s="3">
         <v>237500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>210200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>203100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>186000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>173200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>142200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>139900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>132900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>137900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>130400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>124100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>125100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>129000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>125600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>125300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>122500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>139700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>110100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>109800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>103100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>272800</v>
+      </c>
+      <c r="E60" s="3">
         <v>282300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>242200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>237100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>213300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>208200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>179100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>172100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>161800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>169700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>175300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>174000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>186100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>196700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>175600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>176300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>149300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>172100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>142400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>140200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>125800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E61" s="3">
         <v>17300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>33800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>51500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>53100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>51400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>51600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>51700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E62" s="3">
         <v>22600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16200</v>
-      </c>
-      <c r="N62" s="3">
-        <v>7000</v>
       </c>
       <c r="O62" s="3">
         <v>7000</v>
       </c>
       <c r="P62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q62" s="3">
         <v>8600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>21100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>20700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>306000</v>
+      </c>
+      <c r="E66" s="3">
         <v>323300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>271800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>268200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>244800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>241800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>214200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>202800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>192100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>200800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>205700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>195600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>208100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>220500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>217900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>217700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>208600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>236100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>205200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>212900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>198100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>575100</v>
+      </c>
+      <c r="E72" s="3">
         <v>495700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>458100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>431100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>405800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>386100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>371100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>355100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>343100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>322200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>301400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>280100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>260100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>246700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>231100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>209400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>187600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>166100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>160000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>148100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>137300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>806200</v>
+      </c>
+      <c r="E76" s="3">
         <v>733100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>699100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>683600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>661700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>640700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>624000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>607600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>595300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>573000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>550300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>529600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>509100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>494700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>475700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>457100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>435600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>413000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>404400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>394400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>384000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>371000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>79400</v>
+      </c>
+      <c r="E81" s="3">
         <v>37600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>27000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>25200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>20900</v>
       </c>
       <c r="L81" s="3">
         <v>20900</v>
       </c>
       <c r="M81" s="3">
+        <v>20900</v>
+      </c>
+      <c r="N81" s="3">
         <v>21300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>20000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>21400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>12300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,13 +5416,14 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1600</v>
+        <v>3600</v>
       </c>
       <c r="E83" s="3">
         <v>1600</v>
@@ -5249,10 +5447,10 @@
         <v>1600</v>
       </c>
       <c r="L83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M83" s="3">
         <v>1400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1200</v>
       </c>
       <c r="N83" s="3">
         <v>1200</v>
@@ -5264,13 +5462,13 @@
         <v>1200</v>
       </c>
       <c r="Q83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="R83" s="3">
         <v>1100</v>
       </c>
       <c r="S83" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T83" s="3">
         <v>1000</v>
@@ -5279,7 +5477,7 @@
         <v>1000</v>
       </c>
       <c r="V83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="W83" s="3">
         <v>900</v>
@@ -5287,8 +5485,11 @@
       <c r="X83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E89" s="3">
         <v>55800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>38900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>35700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>33400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>19900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>43400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>16000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1900</v>
       </c>
       <c r="I91" s="3">
         <v>-1900</v>
       </c>
       <c r="J91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-1200</v>
       </c>
       <c r="T91" s="3">
         <v>-1200</v>
       </c>
       <c r="U91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-1200</v>
       </c>
       <c r="X91" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-152400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-1600</v>
       </c>
       <c r="Q94" s="3">
         <v>-1600</v>
       </c>
       <c r="R94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="S94" s="3">
         <v>1900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-17200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-20600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-102300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>38800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>34900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>25300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>24400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>47800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>12800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>12500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>CVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,345 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>588300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>505500</v>
+      </c>
+      <c r="F8" s="3">
         <v>431700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>359500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>330400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>306500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>288800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>258000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>254800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>255300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>273700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>268700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>264000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>241100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>233700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>241500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>246400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>242500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>221400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>200500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>206800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>198000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>202300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>188300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>443600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>375900</v>
+      </c>
+      <c r="F9" s="3">
         <v>316500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>269600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>256400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>235600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>229500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>204400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>199500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>203400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>213900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>210200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>203700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>185300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>184700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>192100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>194900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>188200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>171500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>166000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>164900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>155900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>158800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>129600</v>
+      </c>
+      <c r="F10" s="3">
         <v>115200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>89900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>74000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>70900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>59300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>53600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>55300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>51900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>59800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>58500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>60300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>55800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>49000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>49400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>51500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>54300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>49900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>34500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>42000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>42100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>43500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1029,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1102,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1179,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1161,48 +1199,48 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
-      </c>
-      <c r="M14" s="3">
-        <v>800</v>
-      </c>
-      <c r="N14" s="3">
-        <v>800</v>
       </c>
       <c r="O14" s="3">
         <v>800</v>
       </c>
       <c r="P14" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>800</v>
+      </c>
+      <c r="R14" s="3">
         <v>1300</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1218,8 +1256,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1333,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1363,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>509800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>435600</v>
+      </c>
+      <c r="F17" s="3">
         <v>376800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>315000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>297200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>279600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>264900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>239900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>234800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>240900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>250700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>246300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>239000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>216800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>215500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>222100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>224100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>216600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>197600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>192100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>191200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>181000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>184800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>69900</v>
+      </c>
+      <c r="F18" s="3">
         <v>54900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>44500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>33200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>26900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>23900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>18100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>20000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>14400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>23000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>22400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>25000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>24300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>18200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>19400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>22300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>25900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>23800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>8400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>15600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>17000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>17500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1546,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>4300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>5900</v>
-      </c>
-      <c r="T20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>1100</v>
       </c>
       <c r="V20" s="3">
         <v>1100</v>
       </c>
       <c r="W20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>72900</v>
+      </c>
+      <c r="F21" s="3">
         <v>62700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>50800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>37200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>31500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>27600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>21400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>23500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>15400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>26800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>29000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>29100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>27900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>19100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>21600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>26200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>32800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>25900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>10500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>17700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>18500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>19300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1633,7 +1711,7 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1654,191 +1732,209 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>500</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>1100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>1200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>1000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>1000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="X22" s="3">
-        <v>1100</v>
       </c>
       <c r="Y22" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>68600</v>
+      </c>
+      <c r="F23" s="3">
         <v>58900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>49000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>35500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>29700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>25900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>19600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>21700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>13600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>24700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>27300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>27400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>26100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>16900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>19500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>24100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>30700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>23700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>8500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>15700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>16500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>17300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-20700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>11300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>8400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>6200</v>
       </c>
       <c r="I24" s="3">
         <v>4500</v>
       </c>
       <c r="J24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>6400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>6100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>5800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>3600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>3900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>4400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>11700</v>
-      </c>
-      <c r="T24" s="3">
-        <v>3900</v>
-      </c>
-      <c r="U24" s="3">
-        <v>2300</v>
       </c>
       <c r="V24" s="3">
         <v>3900</v>
       </c>
       <c r="W24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="X24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Y24" s="3">
         <v>5600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>5000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2004,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>53400</v>
+      </c>
+      <c r="F26" s="3">
         <v>79600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>37700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>27000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>25200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>19700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>15000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>16700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>12000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>20900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>20900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>21300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>20300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>13400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>15600</v>
-      </c>
-      <c r="R26" s="3">
-        <v>19700</v>
-      </c>
-      <c r="S26" s="3">
-        <v>19000</v>
       </c>
       <c r="T26" s="3">
         <v>19700</v>
       </c>
       <c r="U26" s="3">
+        <v>19000</v>
+      </c>
+      <c r="V26" s="3">
+        <v>19700</v>
+      </c>
+      <c r="W26" s="3">
         <v>6200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>11800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>10900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>12300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>53600</v>
+      </c>
+      <c r="F27" s="3">
         <v>79400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>37600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>27000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>25200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>19700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>15000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>16700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>12000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>20900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>20900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>21300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>20300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>13400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>15600</v>
-      </c>
-      <c r="R27" s="3">
-        <v>19700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>19000</v>
       </c>
       <c r="T27" s="3">
         <v>19700</v>
       </c>
       <c r="U27" s="3">
+        <v>19000</v>
+      </c>
+      <c r="V27" s="3">
+        <v>19700</v>
+      </c>
+      <c r="W27" s="3">
         <v>6200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>11800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>10900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>12300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,67 +2235,73 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>-300</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>-300</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>3100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>1700</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2192,8 +2312,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2389,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2466,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-5900</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-1100</v>
       </c>
       <c r="V32" s="3">
         <v>-1100</v>
       </c>
       <c r="W32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>53600</v>
+      </c>
+      <c r="F33" s="3">
         <v>79400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>37600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>27000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>25200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>19700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>15000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>16700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>12000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>20900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>20900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>21300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>20000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>13400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>15600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>19700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>22100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>21400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>6200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>11800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>10900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>12300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2697,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>53600</v>
+      </c>
+      <c r="F35" s="3">
         <v>79400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>37600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>27000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>25200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>19700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>15000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>16700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>12000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>20900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>20900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>21300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>20000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>13400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>15600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>19700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>22100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>21400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>6200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>11800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>10900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>12300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2889,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,647 +2918,703 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>238100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>244200</v>
+      </c>
+      <c r="F41" s="3">
         <v>267300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>224300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>329800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>322300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>327500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>312200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>270500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>241800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>216900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>190500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>199800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>187400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>192900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>195500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>177500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>186800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>139000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>136800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>129500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>132500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>119700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F42" s="3">
         <v>21100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>18900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>19700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>19500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>17000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>16600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>16400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>14600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>13900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>13400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>13200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>12600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>10600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>13500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>14300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>11900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>14500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>14200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>12400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>11300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>12200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>162900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>149300</v>
+      </c>
+      <c r="F43" s="3">
         <v>119500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>130100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>102100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>104300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>102000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>90800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>97400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>90600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>92000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>98100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>89700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>86000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>79500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>80300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>85300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>71600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>80500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>77800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>75000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>70300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>73400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>254700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>244000</v>
+      </c>
+      <c r="F44" s="3">
         <v>200300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>190400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>150900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>131200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>110600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>111900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>106400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>113500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>110100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>115200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>118500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>116200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>115400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>111500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>110400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>109200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>105900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>101500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>99100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>93900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>86600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>86600</v>
+      </c>
+      <c r="F45" s="3">
         <v>95400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>69300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>65300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>74500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>68600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>65900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>57200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>55600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>69000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>69500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>57800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>59900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>51400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>47900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>41800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>39200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>44100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>57100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>40600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>48800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>42600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>748000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>744100</v>
+      </c>
+      <c r="F46" s="3">
         <v>703500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>633000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>667900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>651800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>625700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>597400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>548000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>516200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>502000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>486600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>479000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>462000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>449700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>448700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>429200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>418600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>384000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>387400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>356600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>356800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>334600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>100100</v>
+      </c>
+      <c r="F47" s="3">
         <v>103500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>108100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>99300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>97200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>95700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>99600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>104200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>112600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>113000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>114400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>117400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>116600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>117900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>118100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>116300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>108500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>117500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>119200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>114600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>112800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>109800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>202500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>181000</v>
+      </c>
+      <c r="F48" s="3">
         <v>174000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>173100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>114100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>113000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>95200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>95300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>95700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>91100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>82100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>81900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>76600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>63500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>66400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>65100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>64000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>63400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>59000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>58700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>57600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>57000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>56900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>128900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>129500</v>
+      </c>
+      <c r="F49" s="3">
         <v>130900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>141900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>89300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>89500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>89600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>89800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>90000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>90200</v>
       </c>
       <c r="L49" s="3">
         <v>90000</v>
       </c>
       <c r="M49" s="3">
+        <v>90200</v>
+      </c>
+      <c r="N49" s="3">
+        <v>90000</v>
+      </c>
+      <c r="O49" s="3">
         <v>90500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>82600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>82700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>82800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>82900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>82900</v>
-      </c>
-      <c r="S49" s="3">
-        <v>83000</v>
-      </c>
-      <c r="T49" s="3">
-        <v>83000</v>
       </c>
       <c r="U49" s="3">
         <v>83000</v>
       </c>
       <c r="V49" s="3">
-        <v>80100</v>
+        <v>83000</v>
       </c>
       <c r="W49" s="3">
-        <v>80000</v>
+        <v>83000</v>
       </c>
       <c r="X49" s="3">
         <v>80100</v>
       </c>
       <c r="Y49" s="3">
+        <v>80000</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>80100</v>
+      </c>
+      <c r="AA49" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3684,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3761,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3559,10 +3797,10 @@
         <v>300</v>
       </c>
       <c r="L52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>400</v>
@@ -3571,22 +3809,22 @@
         <v>400</v>
       </c>
       <c r="P52" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>400</v>
+      </c>
+      <c r="R52" s="3">
         <v>500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1300</v>
-      </c>
-      <c r="T52" s="3">
-        <v>700</v>
-      </c>
-      <c r="U52" s="3">
-        <v>700</v>
       </c>
       <c r="V52" s="3">
         <v>700</v>
@@ -3600,8 +3838,14 @@
       <c r="Y52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3915,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1183800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1155000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1112200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1056400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>970900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>951800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>906600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>882500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>838300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>810400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>787400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>773800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>756100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>725200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>717200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>715200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>693600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>674800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>644200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>649100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>609700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>607300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>582100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4025,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +4054,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>43100</v>
+      </c>
+      <c r="F57" s="3">
         <v>33800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>42500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>30200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>32100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>25200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>32900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>34700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>29900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>27100</v>
       </c>
       <c r="M57" s="3">
         <v>29900</v>
       </c>
       <c r="N57" s="3">
+        <v>27100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>29900</v>
+      </c>
+      <c r="P57" s="3">
         <v>24800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>29300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>20300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>25700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>24600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>23800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>19800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>25300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>25000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>24000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>16600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3876,354 +4142,384 @@
         <v>800</v>
       </c>
       <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>800</v>
+      </c>
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>20100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>20600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>40700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>42100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>25400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>27200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>6900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>7100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>7300</v>
-      </c>
-      <c r="W58" s="3">
-        <v>6400</v>
-      </c>
-      <c r="X58" s="3">
-        <v>6100</v>
       </c>
       <c r="Y58" s="3">
         <v>6400</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>250300</v>
+      </c>
+      <c r="F59" s="3">
         <v>238200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>237500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>210200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>203100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>186000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>173200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>142200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>139900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>132900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>137900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>130400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>124100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>125100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>129000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>125600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>125300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>122500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>139700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>110100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>109800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>103100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>304700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>294200</v>
+      </c>
+      <c r="F60" s="3">
         <v>272800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>282300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>242200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>237100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>213300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>208200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>179100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>172100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>161800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>169700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>175300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>174000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>186100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>196700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>175600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>176300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>149300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>172100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>142400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>140200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>125800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F61" s="3">
         <v>11000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>17300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>9900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>10300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>10800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>11900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>12300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>12700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>14100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>14400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>14200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>14600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>15000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>15200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>33900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>33800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>51500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>53100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>51400</v>
-      </c>
-      <c r="W61" s="3">
-        <v>51600</v>
-      </c>
-      <c r="X61" s="3">
-        <v>51700</v>
       </c>
       <c r="Y61" s="3">
         <v>51600</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>51700</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>51600</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F62" s="3">
         <v>21000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>22600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>19700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>20800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>20600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>21700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>22900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>18000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>16200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>16800</v>
       </c>
       <c r="N62" s="3">
         <v>16200</v>
       </c>
       <c r="O62" s="3">
+        <v>16800</v>
+      </c>
+      <c r="P62" s="3">
+        <v>16200</v>
+      </c>
+      <c r="Q62" s="3">
         <v>7000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>7000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>8600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>8400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>7600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>7800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>11000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>11400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>21100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>20700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4589,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4666,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4743,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>332200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>324500</v>
+      </c>
+      <c r="F66" s="3">
         <v>306000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>323300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>271800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>268200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>244800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>241800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>214200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>202800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>192100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>200800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>205700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>195600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>208100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>220500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>217900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>217700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>208600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>236100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>205200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>212900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>198100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4853,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4926,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5003,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5080,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5157,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>688400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>628800</v>
+      </c>
+      <c r="F72" s="3">
         <v>575100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>495700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>458100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>431100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>405800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>386100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>371100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>355100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>343100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>322200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>301400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>280100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>260100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>246700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>231100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>209400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>187600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>166100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>160000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>148100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>137300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5311,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5388,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5465,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>851600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>830500</v>
+      </c>
+      <c r="F76" s="3">
         <v>806200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>733100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>699100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>683600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>661700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>640700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>624000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>607600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>595300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>573000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>550300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>529600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>509100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>494700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>475700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>457100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>435600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>413000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>404400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>394400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>384000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>371000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5619,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>53600</v>
+      </c>
+      <c r="F81" s="3">
         <v>79400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>37600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>27000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>25200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>19700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>15000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>16700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>12000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>20900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>20900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>21300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>20000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>13400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>15600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>19700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>22100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>21400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>6200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>11800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>10900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>12300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,19 +5811,21 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F83" s="3">
         <v>3600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1600</v>
       </c>
       <c r="G83" s="3">
         <v>1600</v>
@@ -5450,13 +5846,13 @@
         <v>1600</v>
       </c>
       <c r="M83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O83" s="3">
         <v>1400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1200</v>
       </c>
       <c r="P83" s="3">
         <v>1200</v>
@@ -5465,31 +5861,37 @@
         <v>1200</v>
       </c>
       <c r="R83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T83" s="3">
         <v>1100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>1100</v>
-      </c>
-      <c r="T83" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>1000</v>
       </c>
       <c r="V83" s="3">
         <v>1000</v>
       </c>
       <c r="W83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="X83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Y83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5961,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6038,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6115,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6192,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6269,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F89" s="3">
         <v>45900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>55800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>24300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>22500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>17000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>38900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>35700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>33400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>24700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>26800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>16800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>16500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>19900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>43400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>6700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>7000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>16000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>6400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6379,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-19700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-7900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-2200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-5400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-1000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6529,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6606,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F94" s="3">
         <v>8200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-152400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-18300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-6400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-16800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>1900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-4400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-3400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6716,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6789,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6866,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6943,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +7020,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-15400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-5700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-13200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-5500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-17200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-20600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-4100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>2500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-2400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +7174,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="F102" s="3">
         <v>38700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-102300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>7500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>11400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>38800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>34900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>25300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>24400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-7200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>13200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-4700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>18200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-7800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>47800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>6900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>12800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>4700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>12500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>CVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,345 +665,357 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>577400</v>
+      </c>
+      <c r="E8" s="3">
         <v>588300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>505500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>431700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>359500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>330400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>306500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>288800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>258000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>254800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>255300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>273700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>268700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>264000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>241100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>233700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>241500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>246400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>242500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>221400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>200500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>206800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>198000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>202300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>188300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>419800</v>
+      </c>
+      <c r="E9" s="3">
         <v>443600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>375900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>316500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>269600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>256400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>235600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>229500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>204400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>199500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>203400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>213900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>210200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>203700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>185300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>184700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>192100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>194900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>188200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>171500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>166000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>164900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>155900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>158800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>157600</v>
+      </c>
+      <c r="E10" s="3">
         <v>144700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>129600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>115200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>89900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>74000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>70900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>59300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>53600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>55300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>51900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>59800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>58500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>60300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>55800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>49000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>49400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>51500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>54300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>49900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>34500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>42000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>42100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>43500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1031,8 +1043,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1108,8 +1121,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,8 +1201,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1205,26 +1224,26 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900</v>
-      </c>
-      <c r="O14" s="3">
-        <v>800</v>
       </c>
       <c r="P14" s="3">
         <v>800</v>
@@ -1233,16 +1252,16 @@
         <v>800</v>
       </c>
       <c r="R14" s="3">
+        <v>800</v>
+      </c>
+      <c r="S14" s="3">
         <v>1300</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1262,8 +1281,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1339,8 +1361,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,162 +1390,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>486700</v>
+      </c>
+      <c r="E17" s="3">
         <v>509800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>435600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>376800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>315000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>297200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>279600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>264900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>239900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>234800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>240900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>250700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>246300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>239000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>216800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>215500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>222100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>224100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>216600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>197600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>192100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>191200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>181000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>184800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E18" s="3">
         <v>78600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>69900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>54900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>44500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>33200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>23900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>23000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>22400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>25000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>18200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>19400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>22300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>25900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>23800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>8400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>15600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>17000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>17500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,67 +1580,68 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5900</v>
-      </c>
-      <c r="V20" s="3">
-        <v>1100</v>
       </c>
       <c r="W20" s="3">
         <v>1100</v>
@@ -1617,93 +1650,99 @@
         <v>1100</v>
       </c>
       <c r="Y20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E21" s="3">
         <v>83400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>72900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>62700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>50800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>37200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>31500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>27600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>15400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>29000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>29100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>27900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>21600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>26200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>32800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>25900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>10500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>17700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>18500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>19300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1711,10 +1750,10 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1738,40 +1777,40 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
-      </c>
-      <c r="R22" s="3">
-        <v>900</v>
       </c>
       <c r="S22" s="3">
         <v>900</v>
       </c>
       <c r="T22" s="3">
+        <v>900</v>
+      </c>
+      <c r="U22" s="3">
         <v>1000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1200</v>
-      </c>
-      <c r="W22" s="3">
-        <v>1000</v>
       </c>
       <c r="X22" s="3">
         <v>1000</v>
       </c>
       <c r="Y22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Z22" s="3">
         <v>1100</v>
@@ -1779,162 +1818,171 @@
       <c r="AA22" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E23" s="3">
         <v>79300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>68600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>58900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>49000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>35500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>25900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>13600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>27300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>27400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>26100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>16900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>19500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>24100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>30700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>23700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>8500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>15700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>16500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>17300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E24" s="3">
         <v>19600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-20700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>5000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2010,162 +2058,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E26" s="3">
         <v>59700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>53400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>79600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>27000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>25200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>20900</v>
       </c>
       <c r="O26" s="3">
         <v>20900</v>
       </c>
       <c r="P26" s="3">
+        <v>20900</v>
+      </c>
+      <c r="Q26" s="3">
         <v>21300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>20300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>13400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>19700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>19000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>19700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>11800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>10900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>12300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E27" s="3">
         <v>59600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>53600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>79400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>37600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>27000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>25200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>20900</v>
       </c>
       <c r="O27" s="3">
         <v>20900</v>
       </c>
       <c r="P27" s="3">
+        <v>20900</v>
+      </c>
+      <c r="Q27" s="3">
         <v>21300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>20300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>13400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>15600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>19700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>19000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>19700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>11800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>10900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>12300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2241,8 +2298,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2267,17 +2327,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2285,11 +2345,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-300</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2297,14 +2357,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>3100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>1700</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2318,8 +2378,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2458,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,67 +2538,70 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5900</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-1100</v>
       </c>
       <c r="W32" s="3">
         <v>-1100</v>
@@ -2541,93 +2610,99 @@
         <v>-1100</v>
       </c>
       <c r="Y32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E33" s="3">
         <v>59600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>53600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>79400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>37600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>27000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>25200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>20900</v>
       </c>
       <c r="O33" s="3">
         <v>20900</v>
       </c>
       <c r="P33" s="3">
+        <v>20900</v>
+      </c>
+      <c r="Q33" s="3">
         <v>21300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>20000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>13400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>19700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>22100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>21400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>11800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>10900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>12300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,167 +2778,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E35" s="3">
         <v>59600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>53600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>79400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>37600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>27000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>25200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>20900</v>
       </c>
       <c r="O35" s="3">
         <v>20900</v>
       </c>
       <c r="P35" s="3">
+        <v>20900</v>
+      </c>
+      <c r="Q35" s="3">
         <v>21300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>20000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>19700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>22100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>21400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>11800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>10900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>12300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2975,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,680 +3005,705 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>333200</v>
+      </c>
+      <c r="E41" s="3">
         <v>238100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>244200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>267300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>224300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>329800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>322300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>327500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>312200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>270500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>241800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>216900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>190500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>199800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>187400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>192900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>195500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>177500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>186800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>139000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>136800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>129500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>132500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>119700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E42" s="3">
         <v>15900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>20100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>21100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>18900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>19700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>19500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>17000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>14500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>12400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>11300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>12200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>147700</v>
+      </c>
+      <c r="E43" s="3">
         <v>162900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>149300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>119500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>130100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>102100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>104300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>102000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>90800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>97400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>90600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>92000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>98100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>89700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>86000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>79500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>80300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>85300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>71600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>80500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>77800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>75000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>70300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>73400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E44" s="3">
         <v>254700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>244000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>190400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>150900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>131200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>110600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>111900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>106400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>113500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>110100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>115200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>118500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>116200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>115400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>111500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>110400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>109200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>105900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>101500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>99100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>93900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>86600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E45" s="3">
         <v>76500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>86600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>95400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>69300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>65300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>74500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>68600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>65900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>57200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>55600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>69000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>69500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>57800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>59900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>51400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>47900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>41800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>39200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>44100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>57100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>40600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>48800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>42600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>819800</v>
+      </c>
+      <c r="E46" s="3">
         <v>748000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>744100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>703500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>633000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>667900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>651800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>625700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>597400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>548000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>516200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>502000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>486600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>479000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>462000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>449700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>448700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>429200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>418600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>384000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>387400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>356600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>356800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>334600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>110300</v>
+      </c>
+      <c r="E47" s="3">
         <v>104000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>100100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>103500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>108100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>99300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>97200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>95700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>99600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>104200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>112600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>113000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>114400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>117400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>116600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>117900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>118100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>116300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>108500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>117500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>119200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>114600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>112800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>109800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>206200</v>
+      </c>
+      <c r="E48" s="3">
         <v>202500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>181000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>174000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>173100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>114100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>113000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>95200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>95300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>95700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>91100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>82100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>81900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>76600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>63500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>66400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>65100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>64000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>63400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>59000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>58700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>57600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>57000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>56900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E49" s="3">
         <v>128900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>129500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>130900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>141900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>89300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>89500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>89600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>89800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>90000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>90200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>90000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>90500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>82600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>82700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>82800</v>
-      </c>
-      <c r="S49" s="3">
-        <v>82900</v>
       </c>
       <c r="T49" s="3">
         <v>82900</v>
       </c>
       <c r="U49" s="3">
-        <v>83000</v>
+        <v>82900</v>
       </c>
       <c r="V49" s="3">
         <v>83000</v>
@@ -3602,19 +3712,22 @@
         <v>83000</v>
       </c>
       <c r="X49" s="3">
+        <v>83000</v>
+      </c>
+      <c r="Y49" s="3">
         <v>80100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>80000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>80100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3803,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,8 +3883,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3803,7 +3922,7 @@
         <v>300</v>
       </c>
       <c r="N52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
@@ -3815,19 +3934,19 @@
         <v>400</v>
       </c>
       <c r="R52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S52" s="3">
         <v>500</v>
       </c>
       <c r="T52" s="3">
+        <v>500</v>
+      </c>
+      <c r="U52" s="3">
         <v>1100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1300</v>
-      </c>
-      <c r="V52" s="3">
-        <v>700</v>
       </c>
       <c r="W52" s="3">
         <v>700</v>
@@ -3844,8 +3963,11 @@
       <c r="AA52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,85 +4043,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1264700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1183800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1155000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1112200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1056400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>970900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>951800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>906600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>882500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>838300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>810400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>787400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>773800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>756100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>725200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>717200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>715200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>693600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>674800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>644200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>649100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>609700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>607300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>582100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4155,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,90 +4185,94 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E57" s="3">
         <v>44900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>43100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>42500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>24800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>20300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>25700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>24600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>23800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>19800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>25300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>25000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>24000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>16600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>800</v>
@@ -4148,378 +4281,393 @@
         <v>800</v>
       </c>
       <c r="G58" s="3">
+        <v>800</v>
+      </c>
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2100</v>
       </c>
       <c r="K58" s="3">
         <v>2100</v>
       </c>
       <c r="L58" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="M58" s="3">
         <v>2200</v>
       </c>
       <c r="N58" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="O58" s="3">
         <v>1900</v>
       </c>
       <c r="P58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q58" s="3">
         <v>20100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>20600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>40700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>42100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>25400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>27200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>262700</v>
+      </c>
+      <c r="E59" s="3">
         <v>259000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>250300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>238200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>237500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>210200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>203100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>186000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>173200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>142200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>139900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>132900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>137900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>130400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>124100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>125100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>129000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>125600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>125300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>122500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>139700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>110100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>109800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>103100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>306100</v>
+      </c>
+      <c r="E60" s="3">
         <v>304700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>294200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>272800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>282300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>242200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>237100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>213300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>208200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>179100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>172100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>161800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>169700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>175300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>174000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>186100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>196700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>175600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>176300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>149300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>172100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>142400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>140200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>125800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E61" s="3">
         <v>10700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>33900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>33800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>51500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>53100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>51400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>51600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>51700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E62" s="3">
         <v>16200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16200</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>7000</v>
       </c>
       <c r="R62" s="3">
         <v>7000</v>
       </c>
       <c r="S62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="T62" s="3">
         <v>8600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>21100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>20700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4743,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4672,8 +4823,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,85 +4903,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>335700</v>
+      </c>
+      <c r="E66" s="3">
         <v>332200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>324500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>306000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>323300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>271800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>268200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>244800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>241800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>214200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>202800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>192100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>205700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>195600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>208100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>220500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>217900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>217700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>208600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>236100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>205200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>212900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>198100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5015,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5093,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5173,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5086,8 +5253,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,85 +5333,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>762500</v>
+      </c>
+      <c r="E72" s="3">
         <v>688400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>628800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>575100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>495700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>458100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>431100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>405800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>386100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>371100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>355100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>343100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>322200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>301400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>280100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>260100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>246700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>231100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>209400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>187600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>166100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>160000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>148100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>137300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5493,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5573,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,85 +5653,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>928900</v>
+      </c>
+      <c r="E76" s="3">
         <v>851600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>830500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>806200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>733100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>699100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>683600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>661700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>640700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>624000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>607600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>595300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>573000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>550300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>529600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>509100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>494700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>475700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>457100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>435600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>413000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>404400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>394400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>384000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>371000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,167 +5813,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E81" s="3">
         <v>59600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>53600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>79400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>37600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>27000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>25200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>20900</v>
       </c>
       <c r="O81" s="3">
         <v>20900</v>
       </c>
       <c r="P81" s="3">
+        <v>20900</v>
+      </c>
+      <c r="Q81" s="3">
         <v>21300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>20000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>13400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>19700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>22100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>21400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>11800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>10900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>12300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,22 +6010,23 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E83" s="3">
         <v>3900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1600</v>
       </c>
       <c r="H83" s="3">
         <v>1600</v>
@@ -5852,10 +6050,10 @@
         <v>1600</v>
       </c>
       <c r="O83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P83" s="3">
         <v>1400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1200</v>
       </c>
       <c r="Q83" s="3">
         <v>1200</v>
@@ -5867,13 +6065,13 @@
         <v>1200</v>
       </c>
       <c r="T83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="U83" s="3">
         <v>1100</v>
       </c>
       <c r="V83" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="W83" s="3">
         <v>1000</v>
@@ -5882,7 +6080,7 @@
         <v>1000</v>
       </c>
       <c r="Y83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Z83" s="3">
         <v>900</v>
@@ -5890,8 +6088,11 @@
       <c r="AA83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6168,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6248,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6328,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6408,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,85 +6488,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E89" s="3">
         <v>58200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>45900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>55800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>24300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>17000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>38900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>35700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>33400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>19900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>43400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>16000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>6400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,85 +6600,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1900</v>
       </c>
       <c r="L91" s="3">
         <v>-1900</v>
       </c>
       <c r="M91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N91" s="3">
         <v>-7900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-1200</v>
       </c>
       <c r="W91" s="3">
         <v>-1200</v>
       </c>
       <c r="X91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-1200</v>
       </c>
       <c r="AA91" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6758,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,85 +6838,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>8200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-152400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-1600</v>
       </c>
       <c r="T94" s="3">
         <v>-1600</v>
       </c>
       <c r="U94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="V94" s="3">
         <v>1900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,8 +6950,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6795,8 +7028,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7108,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7188,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,85 +7268,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-40200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-30800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-17200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-20600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7180,81 +7428,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>95200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>38700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-102300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>38800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>34900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>25300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>24400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>47800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>12800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>4700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>12500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>CVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,357 +665,370 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500600</v>
+      </c>
+      <c r="E8" s="3">
         <v>577400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>588300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>505500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>431700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>359500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>330400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>306500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>288800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>258000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>254800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>255300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>273700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>268700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>264000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>241100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>233700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>241500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>246400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>242500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>221400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>200500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>206800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>198000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>202300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>188300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>368600</v>
+      </c>
+      <c r="E9" s="3">
         <v>419800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>443600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>375900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>316500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>269600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>256400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>235600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>229500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>204400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>199500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>203400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>213900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>210200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>203700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>185300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>184700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>192100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>194900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>188200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>171500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>166000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>164900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>155900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>158800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E10" s="3">
         <v>157600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>144700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>129600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>115200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>89900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>74000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>70900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>59300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>53600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>55300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>51900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>59800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>58500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>60300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>55800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>49000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>49400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>51500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>54300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>49900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>34500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>42000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>42100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>43500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1044,8 +1057,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1124,8 +1138,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1204,8 +1221,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1227,26 +1247,26 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
-      </c>
-      <c r="P14" s="3">
-        <v>800</v>
       </c>
       <c r="Q14" s="3">
         <v>800</v>
@@ -1255,16 +1275,16 @@
         <v>800</v>
       </c>
       <c r="S14" s="3">
+        <v>800</v>
+      </c>
+      <c r="T14" s="3">
         <v>1300</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1284,8 +1304,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1364,8 +1387,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1391,168 +1417,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>427500</v>
+      </c>
+      <c r="E17" s="3">
         <v>486700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>509800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>435600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>376800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>315000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>297200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>279600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>264900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>239900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>234800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>240900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>250700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>246300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>239000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>216800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>215500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>222100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>224100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>216600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>197600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>192100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>191200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>181000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>184800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E18" s="3">
         <v>90700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>78600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>69900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>54900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>44500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>33200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>23900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>23000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>22400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>25000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>18200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>19400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>22300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>25900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>23800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>8400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>15600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>17000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>17500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1581,70 +1614,71 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5900</v>
-      </c>
-      <c r="W20" s="3">
-        <v>1100</v>
       </c>
       <c r="X20" s="3">
         <v>1100</v>
@@ -1653,96 +1687,102 @@
         <v>1100</v>
       </c>
       <c r="Z20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E21" s="3">
         <v>97400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>83400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>72900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>62700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>50800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>37200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>31500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>15400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>29000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>29100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>27900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>19100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>21600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>26200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>32800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>25900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>10500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>17700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>18500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>19300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1753,10 +1793,10 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1780,40 +1820,40 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>600</v>
-      </c>
-      <c r="S22" s="3">
-        <v>900</v>
       </c>
       <c r="T22" s="3">
         <v>900</v>
       </c>
       <c r="U22" s="3">
+        <v>900</v>
+      </c>
+      <c r="V22" s="3">
         <v>1000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1200</v>
-      </c>
-      <c r="X22" s="3">
-        <v>1000</v>
       </c>
       <c r="Y22" s="3">
         <v>1000</v>
       </c>
       <c r="Z22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="AA22" s="3">
         <v>1100</v>
@@ -1821,168 +1861,177 @@
       <c r="AB22" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E23" s="3">
         <v>92800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>79300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>68600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>58900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>49000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>35500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>29700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>25900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>13600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>27300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>27400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>26100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>16900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>19500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>24100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>30700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>23700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>8500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>15700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>16500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>17300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E24" s="3">
         <v>18600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-20700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>5600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>5000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2061,168 +2110,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E26" s="3">
         <v>74200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>59700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>53400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>79600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>27000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>25200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>20900</v>
       </c>
       <c r="P26" s="3">
         <v>20900</v>
       </c>
       <c r="Q26" s="3">
+        <v>20900</v>
+      </c>
+      <c r="R26" s="3">
         <v>21300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>20300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>13400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>15600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>19700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>19000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>19700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>11800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>10900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>12300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E27" s="3">
         <v>74100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>59600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>53600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>79400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>37600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>27000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>25200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>20900</v>
       </c>
       <c r="P27" s="3">
         <v>20900</v>
       </c>
       <c r="Q27" s="3">
+        <v>20900</v>
+      </c>
+      <c r="R27" s="3">
         <v>21300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>20300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>13400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>15600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>19700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>19000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>19700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>11800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>10900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>12300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2301,8 +2359,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2330,17 +2391,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2348,11 +2409,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-300</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2360,14 +2421,14 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>3100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>1700</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2381,8 +2442,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2461,8 +2525,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2541,70 +2608,73 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5900</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-1100</v>
       </c>
       <c r="X32" s="3">
         <v>-1100</v>
@@ -2613,96 +2683,102 @@
         <v>-1100</v>
       </c>
       <c r="Z32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E33" s="3">
         <v>74100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>59600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>53600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>79400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>37600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>27000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>25200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>20900</v>
       </c>
       <c r="P33" s="3">
         <v>20900</v>
       </c>
       <c r="Q33" s="3">
+        <v>20900</v>
+      </c>
+      <c r="R33" s="3">
         <v>21300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>13400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>15600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>19700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>22100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>21400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>11800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>10900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>12300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2781,173 +2857,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E35" s="3">
         <v>74100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>59600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>53600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>79400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>37600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>27000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>25200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>20900</v>
       </c>
       <c r="P35" s="3">
         <v>20900</v>
       </c>
       <c r="Q35" s="3">
+        <v>20900</v>
+      </c>
+      <c r="R35" s="3">
         <v>21300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>13400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>15600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>19700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>22100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>21400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>11800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>10900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>12300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2976,8 +3061,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3006,707 +3092,732 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>376100</v>
+      </c>
+      <c r="E41" s="3">
         <v>333200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>238100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>244200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>267300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>224300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>329800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>322300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>327500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>312200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>270500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>241800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>216900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>190500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>199800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>187400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>192900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>195500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>177500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>186800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>139000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>136800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>129500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>132500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>119700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E42" s="3">
         <v>16400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>15900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>20100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>21100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>18900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>19700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>19500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>12600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>13500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>11900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>14200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>12400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>11300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>12200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E43" s="3">
         <v>147700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>162900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>149300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>119500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>130100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>102100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>104300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>102000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>90800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>97400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>90600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>92000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>98100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>89700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>86000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>79500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>80300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>85300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>71600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>80500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>77800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>75000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>70300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>73400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>215500</v>
+      </c>
+      <c r="E44" s="3">
         <v>234000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>254700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>244000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>200300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>190400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>150900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>131200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>110600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>111900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>106400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>113500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>110100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>115200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>118500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>116200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>115400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>111500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>110400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>109200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>105900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>101500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>99100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>93900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>86600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E45" s="3">
         <v>88500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>76500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>86600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>95400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>69300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>65300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>74500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>68600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>65900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>57200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>55600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>69000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>69500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>57800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>59900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>51400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>47900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>41800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>39200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>44100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>57100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>40600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>48800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>42600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>832600</v>
+      </c>
+      <c r="E46" s="3">
         <v>819800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>748000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>744100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>703500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>633000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>667900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>651800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>625700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>597400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>548000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>516200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>502000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>486600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>479000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>462000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>449700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>448700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>429200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>418600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>384000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>387400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>356600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>356800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>334600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E47" s="3">
         <v>110300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>104000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>100100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>103500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>108100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>99300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>97200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>95700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>99600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>104200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>112600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>113000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>114400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>117400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>116600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>117900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>118100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>116300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>108500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>117500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>119200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>114600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>112800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>109800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>211600</v>
+      </c>
+      <c r="E48" s="3">
         <v>206200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>202500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>181000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>174000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>173100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>114100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>113000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>95200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>95300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>95700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>91100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>82100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>81900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>76600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>63500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>66400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>65100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>64000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>63400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>59000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>58700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>57600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>57000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>56900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E49" s="3">
         <v>128000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>128900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>129500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>130900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>141900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>89300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>89500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>89600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>89800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>90000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>90200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>90000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>90500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>82600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>82700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>82800</v>
-      </c>
-      <c r="T49" s="3">
-        <v>82900</v>
       </c>
       <c r="U49" s="3">
         <v>82900</v>
       </c>
       <c r="V49" s="3">
-        <v>83000</v>
+        <v>82900</v>
       </c>
       <c r="W49" s="3">
         <v>83000</v>
@@ -3715,19 +3826,22 @@
         <v>83000</v>
       </c>
       <c r="Y49" s="3">
+        <v>83000</v>
+      </c>
+      <c r="Z49" s="3">
         <v>80100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>80000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>80100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3806,8 +3920,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3886,8 +4003,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3925,7 +4045,7 @@
         <v>300</v>
       </c>
       <c r="O52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
@@ -3937,19 +4057,19 @@
         <v>400</v>
       </c>
       <c r="S52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T52" s="3">
         <v>500</v>
       </c>
       <c r="U52" s="3">
+        <v>500</v>
+      </c>
+      <c r="V52" s="3">
         <v>1100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1300</v>
-      </c>
-      <c r="W52" s="3">
-        <v>700</v>
       </c>
       <c r="X52" s="3">
         <v>700</v>
@@ -3966,8 +4086,11 @@
       <c r="AB52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4046,88 +4169,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1264500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1264700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1183800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1155000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1112200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1056400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>970900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>951800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>906600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>882500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>838300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>810400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>787400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>773800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>756100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>725200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>717200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>715200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>693600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>674800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>644200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>649100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>609700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>607300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>582100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4156,8 +4285,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4186,96 +4316,100 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E57" s="3">
         <v>42700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>43100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>42500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>29900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>27100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>24800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>29300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>20300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>25700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>24600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>23800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>19800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>25300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>25000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>24000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>16600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>800</v>
       </c>
       <c r="F58" s="3">
         <v>800</v>
@@ -4284,390 +4418,405 @@
         <v>800</v>
       </c>
       <c r="H58" s="3">
+        <v>800</v>
+      </c>
+      <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2100</v>
       </c>
       <c r="L58" s="3">
         <v>2100</v>
       </c>
       <c r="M58" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="N58" s="3">
         <v>2200</v>
       </c>
       <c r="O58" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="P58" s="3">
         <v>1900</v>
       </c>
       <c r="Q58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R58" s="3">
         <v>20100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>20600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>40700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>42100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>25400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>27200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>248500</v>
+      </c>
+      <c r="E59" s="3">
         <v>262700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>259000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>250300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>238200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>237500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>210200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>203100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>186000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>173200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>142200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>139900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>132900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>137900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>130400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>124100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>125100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>129000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>125600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>125300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>122500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>139700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>110100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>109800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>103100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>278400</v>
+      </c>
+      <c r="E60" s="3">
         <v>306100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>304700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>294200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>272800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>282300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>242200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>237100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>213300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>208200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>179100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>172100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>161800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>169700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>175300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>174000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>186100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>196700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>175600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>176300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>149300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>172100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>142400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>140200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>125800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E61" s="3">
         <v>10400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>11000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>33900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>33800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>51500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>53100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>51400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>51600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>51700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E62" s="3">
         <v>18300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16200</v>
-      </c>
-      <c r="R62" s="3">
-        <v>7000</v>
       </c>
       <c r="S62" s="3">
         <v>7000</v>
       </c>
       <c r="T62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="U62" s="3">
         <v>8600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>21100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>20700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4746,8 +4895,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4826,8 +4978,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4906,88 +5061,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E66" s="3">
         <v>335700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>332200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>324500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>306000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>323300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>271800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>268200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>244800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>241800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>214200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>202800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>192100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>205700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>195600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>208100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>220500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>217900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>217700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>208600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>236100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>205200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>212900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>198100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5016,8 +5177,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5096,8 +5258,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5176,8 +5341,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5256,8 +5424,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5336,88 +5507,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>822000</v>
+      </c>
+      <c r="E72" s="3">
         <v>762500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>688400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>628800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>575100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>495700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>458100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>431100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>405800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>386100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>371100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>355100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>343100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>322200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>301400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>280100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>260100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>246700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>231100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>209400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>187600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>166100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>160000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>148100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>137300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5496,8 +5673,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5576,8 +5756,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5656,88 +5839,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>955500</v>
+      </c>
+      <c r="E76" s="3">
         <v>928900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>851600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>830500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>806200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>733100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>699100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>683600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>661700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>640700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>624000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>607600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>595300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>573000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>550300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>529600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>509100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>494700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>475700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>457100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>435600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>413000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>404400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>394400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>384000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>371000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5816,173 +6005,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E81" s="3">
         <v>74100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>59600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>53600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>79400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>37600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>27000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>25200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>20900</v>
       </c>
       <c r="P81" s="3">
         <v>20900</v>
       </c>
       <c r="Q81" s="3">
+        <v>20900</v>
+      </c>
+      <c r="R81" s="3">
         <v>21300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>13400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>15600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>19700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>22100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>21400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>11800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>10900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>12300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6011,25 +6209,26 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E83" s="3">
         <v>4300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1600</v>
       </c>
       <c r="I83" s="3">
         <v>1600</v>
@@ -6053,10 +6252,10 @@
         <v>1600</v>
       </c>
       <c r="P83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>1200</v>
       </c>
       <c r="R83" s="3">
         <v>1200</v>
@@ -6068,13 +6267,13 @@
         <v>1200</v>
       </c>
       <c r="U83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="V83" s="3">
         <v>1100</v>
       </c>
       <c r="W83" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="X83" s="3">
         <v>1000</v>
@@ -6083,7 +6282,7 @@
         <v>1000</v>
       </c>
       <c r="Z83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AA83" s="3">
         <v>900</v>
@@ -6091,8 +6290,11 @@
       <c r="AB83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6171,8 +6373,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6251,8 +6456,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6331,8 +6539,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6411,8 +6622,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6491,88 +6705,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E89" s="3">
         <v>104700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>58200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>45900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>55800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>24300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>38900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>35700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>33400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>24700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>19900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>43400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>16000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>6400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6601,88 +6821,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1900</v>
       </c>
       <c r="M91" s="3">
         <v>-1900</v>
       </c>
       <c r="N91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="O91" s="3">
         <v>-7900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-1200</v>
       </c>
       <c r="X91" s="3">
         <v>-1200</v>
       </c>
       <c r="Y91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>-1200</v>
       </c>
       <c r="AB91" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6761,8 +6985,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6841,88 +7068,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>8200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-152400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-1600</v>
       </c>
       <c r="U94" s="3">
         <v>-1600</v>
       </c>
       <c r="V94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="W94" s="3">
         <v>1900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6951,8 +7184,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7031,8 +7265,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7111,8 +7348,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7191,8 +7431,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7271,88 +7514,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-40200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-30800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-20600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7431,84 +7680,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E102" s="3">
         <v>95200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>38700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-102300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>38800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>34900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>25300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>24400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>18200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>47800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>6900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>12800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>4700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>12500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>CVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,370 +665,395 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>475900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>476400</v>
+      </c>
+      <c r="F8" s="3">
         <v>500600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>577400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>588300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>505500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>431700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>359500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>330400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>306500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>288800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>258000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>254800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>255300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>273700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>268700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>264000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>241100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>233700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>241500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>246400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>242500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>221400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>200500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>206800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>198000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>202300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>188300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>358000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>355700</v>
+      </c>
+      <c r="F9" s="3">
         <v>368600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>419800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>443600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>375900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>316500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>269600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>256400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>235600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>229500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>204400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>199500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>203400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>213900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>210200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>203700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>185300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>184700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>192100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>194900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>188200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>171500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>166000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>164900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>155900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>158800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>120700</v>
+      </c>
+      <c r="F10" s="3">
         <v>132000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>157600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>144700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>129600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>115200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>89900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>74000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>70900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>59300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>53600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>55300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>51900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>59800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>58500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>60300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>55800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>49000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>49400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>51500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>54300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>49900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>34500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>42000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>42100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>43500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1058,8 +1083,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1141,8 +1168,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1224,8 +1257,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1250,48 +1289,48 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>900</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>800</v>
-      </c>
-      <c r="R14" s="3">
-        <v>800</v>
       </c>
       <c r="S14" s="3">
         <v>800</v>
       </c>
       <c r="T14" s="3">
+        <v>800</v>
+      </c>
+      <c r="U14" s="3">
+        <v>800</v>
+      </c>
+      <c r="V14" s="3">
         <v>1300</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
@@ -1307,8 +1346,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1390,8 +1435,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1418,174 +1469,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>419700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>422100</v>
+      </c>
+      <c r="F17" s="3">
         <v>427500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>486700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>509800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>435600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>376800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>315000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>297200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>279600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>264900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>239900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>234800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>240900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>250700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>246300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>239000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>216800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>215500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>222100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>224100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>216600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>197600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>192100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>191200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>181000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>184800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>54300</v>
+      </c>
+      <c r="F18" s="3">
         <v>73100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>90700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>78600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>69900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>54900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>44500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>33200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>26900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>23900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>18100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>20000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>14400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>23000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>22400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>25000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>24300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>18200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>19400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>22300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>25900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>23800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>8400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>15600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>17000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>17500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1615,194 +1680,208 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>5100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>2800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>5900</v>
-      </c>
-      <c r="X20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>1100</v>
       </c>
       <c r="Z20" s="3">
         <v>1100</v>
       </c>
       <c r="AA20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC20" s="3">
         <v>500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>63600</v>
+      </c>
+      <c r="F21" s="3">
         <v>80200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>97400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>83400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>72900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>62700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>50800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>37200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>31500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>27600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>21400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>23500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>15400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>26800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>29000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>29100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>27900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>19100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>21600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>26200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>32800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>25900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>10500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>17700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>18500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>19300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1823,215 +1902,233 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>500</v>
       </c>
       <c r="S22" s="3">
+        <v>300</v>
+      </c>
+      <c r="T22" s="3">
+        <v>500</v>
+      </c>
+      <c r="U22" s="3">
         <v>600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>1000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>1100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>1200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>1000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>1100</v>
       </c>
       <c r="AC22" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>58600</v>
+      </c>
+      <c r="F23" s="3">
         <v>76100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>92800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>79300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>68600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>58900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>49000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>35500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>29700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>25900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>19600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>21700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>13600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>24700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>27300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>27400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>26100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>16900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>19500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>24100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>30700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>23700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>8500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>15700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>16500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>17300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F24" s="3">
         <v>16500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>18600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>19600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>15200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-20700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>11300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>8400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>4500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>6200</v>
       </c>
       <c r="M24" s="3">
         <v>4500</v>
       </c>
       <c r="N24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="O24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P24" s="3">
         <v>5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>3800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>6400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>6100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>5800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>3600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>3900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>4400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>11700</v>
-      </c>
-      <c r="X24" s="3">
-        <v>3900</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>2300</v>
       </c>
       <c r="Z24" s="3">
         <v>3900</v>
       </c>
       <c r="AA24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="AC24" s="3">
         <v>5600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>5000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2113,174 +2210,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>47400</v>
+      </c>
+      <c r="F26" s="3">
         <v>59600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>74200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>59700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>53400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>79600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>37700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>27000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>25200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>19700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>15000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>16700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>12000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>20900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>20900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>21300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>20300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>13400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>15600</v>
-      </c>
-      <c r="V26" s="3">
-        <v>19700</v>
-      </c>
-      <c r="W26" s="3">
-        <v>19000</v>
       </c>
       <c r="X26" s="3">
         <v>19700</v>
       </c>
       <c r="Y26" s="3">
+        <v>19000</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>19700</v>
+      </c>
+      <c r="AA26" s="3">
         <v>6200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>11800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>10900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>12300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>47300</v>
+      </c>
+      <c r="F27" s="3">
         <v>59500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>74100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>59600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>53600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>79400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>37600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>27000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>25200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>19700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>15000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>16700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>12000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>20900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>20900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>21300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>20300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>13400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>15600</v>
-      </c>
-      <c r="V27" s="3">
-        <v>19700</v>
-      </c>
-      <c r="W27" s="3">
-        <v>19000</v>
       </c>
       <c r="X27" s="3">
         <v>19700</v>
       </c>
       <c r="Y27" s="3">
+        <v>19000</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>19700</v>
+      </c>
+      <c r="AA27" s="3">
         <v>6200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>11800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>10900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>12300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2362,8 +2477,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2394,47 +2515,47 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>-300</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3">
+        <v>-300</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>3100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>1700</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2445,8 +2566,14 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2528,8 +2655,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2611,174 +2744,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-5100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-2800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-5900</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-1100</v>
       </c>
       <c r="Z32" s="3">
         <v>-1100</v>
       </c>
       <c r="AA32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>47300</v>
+      </c>
+      <c r="F33" s="3">
         <v>59500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>74100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>59600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>53600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>79400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>37600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>27000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>25200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>19700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>15000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>16700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>12000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>20900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>20900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>21300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>20000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>13400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>15600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>19700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>22100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>21400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>6200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>11800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>10900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>12300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2860,179 +3011,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>47300</v>
+      </c>
+      <c r="F35" s="3">
         <v>59500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>74100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>59600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>53600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>79400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>37600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>27000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>25200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>19700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>15000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>16700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>12000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>20900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>20900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>21300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>20000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>13400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>15600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>19700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>22100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>21400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>6200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>11800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>10900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>12300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3062,8 +3231,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3093,755 +3264,811 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>352200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>271400</v>
+      </c>
+      <c r="F41" s="3">
         <v>376100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>333200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>238100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>244200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>267300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>224300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>329800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>322300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>327500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>312200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>270500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>241800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>216900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>190500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>199800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>187400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>192900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>195500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>177500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>186800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>139000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>136800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>129500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>132500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>119700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F42" s="3">
         <v>16600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>16400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>15900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>20100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>21100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>18900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>19700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>19500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>17000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>16600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>16400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>14600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>13900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>13400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>13200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>12600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>10600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>13500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>14300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>11900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>14500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>14200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>12400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>11300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>12200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>148600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>150400</v>
+      </c>
+      <c r="F43" s="3">
         <v>128000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>147700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>162900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>149300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>119500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>130100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>102100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>104300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>102000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>90800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>97400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>90600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>92000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>98100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>89700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>86000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>79500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>80300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>85300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>71600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>80500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>77800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>75000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>70300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>73400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>254000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>263200</v>
+      </c>
+      <c r="F44" s="3">
         <v>215500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>234000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>254700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>244000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>200300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>190400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>150900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>131200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>110600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>111900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>106400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>113500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>110100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>115200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>118500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>116200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>115400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>111500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>110400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>109200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>105900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>101500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>99100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>93900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>86600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>104600</v>
+      </c>
+      <c r="F45" s="3">
         <v>96300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>88500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>76500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>86600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>95400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>69300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>65300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>74500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>68600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>65900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>57200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>55600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>69000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>69500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>57800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>59900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>51400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>47900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>41800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>39200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>44100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>57100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>40600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>48800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>42600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>858700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>804600</v>
+      </c>
+      <c r="F46" s="3">
         <v>832600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>819800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>748000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>744100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>703500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>633000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>667900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>651800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>625700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>597400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>548000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>516200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>502000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>486600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>479000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>462000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>449700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>448700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>429200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>418600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>384000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>387400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>356600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>356800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>334600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>103700</v>
+      </c>
+      <c r="F47" s="3">
         <v>92500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>110300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>104000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>100100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>103500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>108100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>99300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>97200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>95700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>99600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>104200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>112600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>113000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>114400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>117400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>116600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>117900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>118100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>116300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>108500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>117500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>119200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>114600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>112800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>109800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>249800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>255000</v>
+      </c>
+      <c r="F48" s="3">
         <v>211600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>206200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>202500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>181000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>174000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>173100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>114100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>113000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>95200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>95300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>95700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>91100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>82100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>81900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>76600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>63500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>66400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>65100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>64000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>63400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>59000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>58700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>57600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>57000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>56900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>144900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>144300</v>
+      </c>
+      <c r="F49" s="3">
         <v>127500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>128000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>128900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>129500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>130900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>141900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>89300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>89500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>89600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>89800</v>
-      </c>
-      <c r="N49" s="3">
-        <v>90000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>90200</v>
       </c>
       <c r="P49" s="3">
         <v>90000</v>
       </c>
       <c r="Q49" s="3">
+        <v>90200</v>
+      </c>
+      <c r="R49" s="3">
+        <v>90000</v>
+      </c>
+      <c r="S49" s="3">
         <v>90500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>82600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>82700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>82800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>82900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>82900</v>
-      </c>
-      <c r="W49" s="3">
-        <v>83000</v>
-      </c>
-      <c r="X49" s="3">
-        <v>83000</v>
       </c>
       <c r="Y49" s="3">
         <v>83000</v>
       </c>
       <c r="Z49" s="3">
-        <v>80100</v>
+        <v>83000</v>
       </c>
       <c r="AA49" s="3">
-        <v>80000</v>
+        <v>83000</v>
       </c>
       <c r="AB49" s="3">
         <v>80100</v>
       </c>
       <c r="AC49" s="3">
+        <v>80000</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>80100</v>
+      </c>
+      <c r="AE49" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3923,8 +4150,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4006,13 +4239,19 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -4048,10 +4287,10 @@
         <v>300</v>
       </c>
       <c r="P52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R52" s="3">
         <v>400</v>
@@ -4060,22 +4299,22 @@
         <v>400</v>
       </c>
       <c r="T52" s="3">
+        <v>400</v>
+      </c>
+      <c r="U52" s="3">
+        <v>400</v>
+      </c>
+      <c r="V52" s="3">
         <v>500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1300</v>
-      </c>
-      <c r="X52" s="3">
-        <v>700</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>700</v>
       </c>
       <c r="Z52" s="3">
         <v>700</v>
@@ -4089,8 +4328,14 @@
       <c r="AC52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4172,91 +4417,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1353000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1308000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1264500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1264700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1183800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1155000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1112200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1056400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>970900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>951800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>906600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>882500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>838300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>810400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>787400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>773800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>756100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>725200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>717200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>715200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>693600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>674800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>644200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>649100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>609700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>607300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>582100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4286,8 +4543,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4317,340 +4576,366 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>30700</v>
+      </c>
+      <c r="F57" s="3">
         <v>26800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>42700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>44900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>43100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>33800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>42500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>30200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>32100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>25200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>32900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>34700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>29900</v>
-      </c>
-      <c r="P57" s="3">
-        <v>27100</v>
       </c>
       <c r="Q57" s="3">
         <v>29900</v>
       </c>
       <c r="R57" s="3">
+        <v>27100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>29900</v>
+      </c>
+      <c r="T57" s="3">
         <v>24800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>29300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>20300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>25700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>24600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>23800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>19800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>25300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>25000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>24000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>16600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>800</v>
       </c>
       <c r="H58" s="3">
         <v>800</v>
       </c>
       <c r="I58" s="3">
+        <v>800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>800</v>
+      </c>
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>20100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>20600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>40700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>42100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>25400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>27200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>6900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>7100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>7300</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>6400</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>6100</v>
       </c>
       <c r="AC58" s="3">
         <v>6400</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>261900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>259600</v>
+      </c>
+      <c r="F59" s="3">
         <v>248500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>262700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>259000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>250300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>238200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>237500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>210200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>203100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>186000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>173200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>142200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>139900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>132900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>137900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>130400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>124100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>125100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>129000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>125600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>125300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>122500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>139700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>110100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>109800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>103100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>293400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>293400</v>
+      </c>
+      <c r="F60" s="3">
         <v>278400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>306100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>304700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>294200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>272800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>282300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>242200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>237100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>213300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>208200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>179100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>172100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>161800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>169700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>175300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>174000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>186100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>196700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>175600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>176300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>149300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>172100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>142400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>140200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>125800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4658,165 +4943,177 @@
         <v>7900</v>
       </c>
       <c r="E61" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F61" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G61" s="3">
         <v>10400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>10700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>10800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>11000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>17300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>9900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>10300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>10800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>11900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>12300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>12700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>14100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>14400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>14200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>14600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>15000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>15200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>33900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>33800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>51500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>53100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>51400</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>51600</v>
-      </c>
-      <c r="AB61" s="3">
-        <v>51700</v>
       </c>
       <c r="AC61" s="3">
         <v>51600</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>51700</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>51600</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F62" s="3">
         <v>21700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>18300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>16200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>18700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>21000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>22600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>19700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>20800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>20600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>21700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>22900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>18000</v>
-      </c>
-      <c r="P62" s="3">
-        <v>16200</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>16800</v>
       </c>
       <c r="R62" s="3">
         <v>16200</v>
       </c>
       <c r="S62" s="3">
+        <v>16800</v>
+      </c>
+      <c r="T62" s="3">
+        <v>16200</v>
+      </c>
+      <c r="U62" s="3">
         <v>7000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>7000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>8600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>8400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>7600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>7800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>11000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>11400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>21100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>20700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4898,8 +5195,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4981,8 +5284,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5064,91 +5373,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>330200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>331700</v>
+      </c>
+      <c r="F66" s="3">
         <v>309000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>335700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>332200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>324500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>306000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>323300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>271800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>268200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>244800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>241800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>214200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>202800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>192100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>200800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>205700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>195600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>208100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>220500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>217900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>217700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>208600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>236100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>205200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>212900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>198100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5178,8 +5499,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5261,8 +5584,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5344,8 +5673,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5427,8 +5762,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5510,91 +5851,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>915700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>869300</v>
+      </c>
+      <c r="F72" s="3">
         <v>822000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>762500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>688400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>628800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>575100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>495700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>458100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>431100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>405800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>386100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>371100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>355100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>343100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>322200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>301400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>280100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>260100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>246700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>231100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>209400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>187600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>166100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>160000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>148100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>137300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5676,8 +6029,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5759,8 +6118,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5842,91 +6207,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1022800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>976300</v>
+      </c>
+      <c r="F76" s="3">
         <v>955500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>928900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>851600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>830500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>806200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>733100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>699100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>683600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>661700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>640700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>624000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>607600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>595300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>573000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>550300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>529600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>509100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>494700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>475700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>457100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>435600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>413000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>404400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>394400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>384000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>371000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6008,179 +6385,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>47300</v>
+      </c>
+      <c r="F81" s="3">
         <v>59500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>74100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>59600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>53600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>79400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>37600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>27000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>25200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>19700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>15000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>16700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>12000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>20900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>20900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>21300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>20000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>13400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>15600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>19700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>22100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>21400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>6200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>11800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>10900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>12300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6210,16 +6605,18 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3900</v>
+        <v>4600</v>
       </c>
       <c r="E83" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="F83" s="3">
         <v>3900</v>
@@ -6228,13 +6625,13 @@
         <v>4300</v>
       </c>
       <c r="H83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J83" s="3">
         <v>3600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1600</v>
       </c>
       <c r="K83" s="3">
         <v>1600</v>
@@ -6255,13 +6652,13 @@
         <v>1600</v>
       </c>
       <c r="Q83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S83" s="3">
         <v>1400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>1200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>1200</v>
       </c>
       <c r="T83" s="3">
         <v>1200</v>
@@ -6270,31 +6667,37 @@
         <v>1200</v>
       </c>
       <c r="V83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X83" s="3">
         <v>1100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>1100</v>
-      </c>
-      <c r="X83" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>1000</v>
       </c>
       <c r="Z83" s="3">
         <v>1000</v>
       </c>
       <c r="AA83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AC83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>900</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6376,8 +6779,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6459,8 +6868,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6542,8 +6957,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6625,8 +7046,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6708,91 +7135,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F89" s="3">
         <v>67200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>104700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>58200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>18300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>45900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>55800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>24300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>22500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>17000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>38900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>35700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>33400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>24700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>26800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>16800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>16500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>19900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-2100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>43400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>6700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>7000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>1700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>16000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>6400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6822,91 +7261,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-8200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-25000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-9700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-4300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-19700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-7900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-2100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-2400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-2200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-5400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6988,8 +7435,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7071,91 +7524,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100100</v>
+      </c>
+      <c r="F94" s="3">
         <v>5700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-10500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-24400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-11300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>8200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-152400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-18300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-6400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-16800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-2000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>1900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7185,8 +7650,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7268,8 +7735,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7351,8 +7824,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7434,8 +7913,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7517,91 +8002,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-34600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-40200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-30800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-15400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-5700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-13200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-5500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-17200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-2200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-20600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-4100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>2500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>1400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7683,87 +8180,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-102900</v>
+      </c>
+      <c r="F102" s="3">
         <v>38300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>95200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-6400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-23800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>38700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-102300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>7500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>11400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>38800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>34900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>25300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>24400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-7200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>13200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-4700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-5100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>18200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-7800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>47800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>6900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>12800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>4700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>12500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>CVCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,395 +665,408 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>452000</v>
+      </c>
+      <c r="E8" s="3">
         <v>475900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>476400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>577400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>588300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>505500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>431700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>359500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>330400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>306500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>288800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>258000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>254800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>255300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>273700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>268700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>264000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>241100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>233700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>241500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>246400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>242500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>221400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>200500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>206800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>198000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>202300</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>188300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>345100</v>
+      </c>
+      <c r="E9" s="3">
         <v>358000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>355700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>368600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>419800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>443600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>375900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>316500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>269600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>256400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>235600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>229500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>204400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>199500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>203400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>213900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>210200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>203700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>185300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>184700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>192100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>194900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>188200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>171500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>166000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>164900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>155900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>158800</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E10" s="3">
         <v>117900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>120700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>132000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>157600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>144700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>129600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>115200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>89900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>74000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>70900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>59300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>53600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>55300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>51900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>59800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>58500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>60300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>55800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>49000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>49400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>51500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>54300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>49900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>34500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>42000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>42100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>43500</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1085,8 +1098,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1174,8 +1188,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,8 +1280,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1295,26 +1315,26 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>900</v>
-      </c>
-      <c r="S14" s="3">
-        <v>800</v>
       </c>
       <c r="T14" s="3">
         <v>800</v>
@@ -1323,16 +1343,16 @@
         <v>800</v>
       </c>
       <c r="V14" s="3">
+        <v>800</v>
+      </c>
+      <c r="W14" s="3">
         <v>1300</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1352,8 +1372,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1441,8 +1464,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1471,186 +1497,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>406600</v>
+      </c>
+      <c r="E17" s="3">
         <v>419700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>422100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>427500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>486700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>509800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>435600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>376800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>315000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>297200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>279600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>264900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>239900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>234800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>240900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>250700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>246300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>239000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>216800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>215500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>222100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>224100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>216600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>197600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>192100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>191200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>181000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>184800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E18" s="3">
         <v>56200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>54300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>73100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>90700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>78600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>69900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>54900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>44500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>33200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>23900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>23000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>22400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>25000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>24300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>18200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>19400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>22300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>25900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>23800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>8400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>15600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>17000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>17500</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1682,79 +1715,80 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E20" s="3">
         <v>4700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>5900</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>1100</v>
       </c>
       <c r="AA20" s="3">
         <v>1100</v>
@@ -1763,105 +1797,111 @@
         <v>1100</v>
       </c>
       <c r="AC20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD20" s="3">
         <v>500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>800</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E21" s="3">
         <v>65500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>63600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>80200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>97400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>83400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>72900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>62700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>50800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>37200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>31500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>27600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>23500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>15400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>26800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>29000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>29100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>27900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>19100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>21600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>26200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>32800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>25900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>10500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>17700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>18500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>19300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1872,7 +1912,7 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1881,10 +1921,10 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1908,40 +1948,40 @@
         <v>200</v>
       </c>
       <c r="R22" s="3">
+        <v>200</v>
+      </c>
+      <c r="S22" s="3">
         <v>500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
-      </c>
-      <c r="V22" s="3">
-        <v>900</v>
       </c>
       <c r="W22" s="3">
         <v>900</v>
       </c>
       <c r="X22" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y22" s="3">
         <v>1000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1200</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>1000</v>
       </c>
       <c r="AB22" s="3">
         <v>1000</v>
       </c>
       <c r="AC22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="AD22" s="3">
         <v>1100</v>
@@ -1949,186 +1989,195 @@
       <c r="AE22" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E23" s="3">
         <v>60700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>58600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>76100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>92800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>79300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>68600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>58900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>49000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>35500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>25900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>13600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>24700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>27300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>27400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>26100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>16900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>19500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>24100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>30700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>23700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>8500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>15700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>16500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>17300</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E24" s="3">
         <v>14300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>19600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-20700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>11700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>3900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>5600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>5000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2216,186 +2265,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E26" s="3">
         <v>46400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>47400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>59600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>74200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>59700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>53400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>79600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12000</v>
-      </c>
-      <c r="R26" s="3">
-        <v>20900</v>
       </c>
       <c r="S26" s="3">
         <v>20900</v>
       </c>
       <c r="T26" s="3">
+        <v>20900</v>
+      </c>
+      <c r="U26" s="3">
         <v>21300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>20300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>13400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>15600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>19700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>19000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>19700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>6200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>11800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>10900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>12300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E27" s="3">
         <v>46400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>47300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>59500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>74100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>59600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>53600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>79400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>37600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>25200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>20900</v>
       </c>
       <c r="S27" s="3">
         <v>20900</v>
       </c>
       <c r="T27" s="3">
+        <v>20900</v>
+      </c>
+      <c r="U27" s="3">
         <v>21300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>20300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>13400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>15600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>19700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>19000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>19700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>6200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>11800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>10900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>12300</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2483,8 +2541,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2521,17 +2582,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2539,11 +2600,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-300</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2551,14 +2612,14 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>3100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>1700</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2572,8 +2633,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2661,8 +2725,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2750,79 +2817,82 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-5900</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>-1100</v>
       </c>
       <c r="AA32" s="3">
         <v>-1100</v>
@@ -2831,105 +2901,111 @@
         <v>-1100</v>
       </c>
       <c r="AC32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-800</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E33" s="3">
         <v>46400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>47300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>59500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>74100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>59600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>53600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>79400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>37600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>25200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>20900</v>
       </c>
       <c r="S33" s="3">
         <v>20900</v>
       </c>
       <c r="T33" s="3">
+        <v>20900</v>
+      </c>
+      <c r="U33" s="3">
         <v>21300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>20000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>13400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>15600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>19700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>22100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>21400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>6200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>11800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>10900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>12300</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3017,191 +3093,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E35" s="3">
         <v>46400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>47300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>59500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>74100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>59600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>53600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>79400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>37600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>25200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>20900</v>
       </c>
       <c r="S35" s="3">
         <v>20900</v>
       </c>
       <c r="T35" s="3">
+        <v>20900</v>
+      </c>
+      <c r="U35" s="3">
         <v>21300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>20000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>13400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>15600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>19700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>22100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>21400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>6200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>11800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>10900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>12300</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3233,8 +3318,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3266,364 +3352,377 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>377300</v>
+      </c>
+      <c r="E41" s="3">
         <v>352200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>271400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>376100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>333200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>238100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>244200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>267300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>224300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>329800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>322300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>327500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>312200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>270500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>241800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>216900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>190500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>199800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>187400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>192900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>195500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>177500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>186800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>139000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>136800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>129500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>132500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>119700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E42" s="3">
         <v>14200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>15000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>16600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>16400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>15900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>20100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>21100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>18900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>16400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>13200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>12600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>10600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>13500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>14300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>11900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>14500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>14200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>12400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>11300</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>12200</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E43" s="3">
         <v>148600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>150400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>128000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>147700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>162900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>149300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>119500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>130100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>102100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>104300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>102000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>90800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>97400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>90600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>92000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>98100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>89700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>86000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>79500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>80300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>85300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>71600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>80500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>77800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>75000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>70300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>73400</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>244500</v>
+      </c>
+      <c r="E44" s="3">
         <v>254000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>263200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>215500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>234000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>254700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>244000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>200300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>190400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>150900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>131200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>110600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>111900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>106400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>113500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>110100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>115200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>118500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>116200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>115400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>111500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>110400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>109200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>105900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>101500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>99100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>93900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>86600</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3631,423 +3730,435 @@
         <v>89700</v>
       </c>
       <c r="E45" s="3">
+        <v>89700</v>
+      </c>
+      <c r="F45" s="3">
         <v>104600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>96300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>88500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>76500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>86600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>95400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>69300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>65300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>74500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>68600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>65900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>57200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>55600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>69000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>69500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>57800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>59900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>51400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>47900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>41800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>39200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>44100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>57100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>40600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>48800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>42600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>875400</v>
+      </c>
+      <c r="E46" s="3">
         <v>858700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>804600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>832600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>819800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>748000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>744100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>703500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>633000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>667900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>651800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>625700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>597400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>548000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>516200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>502000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>486600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>479000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>462000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>449700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>448700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>429200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>418600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>384000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>387400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>356600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>356800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>334600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>330800</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E47" s="3">
         <v>99100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>103700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>92500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>110300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>104000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>100100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>103500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>108100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>99300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>97200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>95700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>99600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>104200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>112600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>113000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>114400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>117400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>116600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>117900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>118100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>116300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>108500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>117500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>119200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>114600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>112800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>109800</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>258100</v>
+      </c>
+      <c r="E48" s="3">
         <v>249800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>255000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>211600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>206200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>202500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>181000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>174000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>173100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>114100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>113000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>95200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>95300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>95700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>91100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>82100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>81900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>76600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>63500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>66400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>65100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>64000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>63400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>59000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>58700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>57600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>57000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>56900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E49" s="3">
         <v>144900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>144300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>127500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>128000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>128900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>129500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>130900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>141900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>89300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>89500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>89600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>89800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>90000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>90200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>90000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>90500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>82600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>82700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>82800</v>
-      </c>
-      <c r="W49" s="3">
-        <v>82900</v>
       </c>
       <c r="X49" s="3">
         <v>82900</v>
       </c>
       <c r="Y49" s="3">
-        <v>83000</v>
+        <v>82900</v>
       </c>
       <c r="Z49" s="3">
         <v>83000</v>
@@ -4056,19 +4167,22 @@
         <v>83000</v>
       </c>
       <c r="AB49" s="3">
+        <v>83000</v>
+      </c>
+      <c r="AC49" s="3">
         <v>80100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>80000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>80100</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4156,8 +4270,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4245,8 +4362,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4254,7 +4374,7 @@
         <v>600</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -4293,7 +4413,7 @@
         <v>300</v>
       </c>
       <c r="R52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S52" s="3">
         <v>400</v>
@@ -4305,19 +4425,19 @@
         <v>400</v>
       </c>
       <c r="V52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W52" s="3">
         <v>500</v>
       </c>
       <c r="X52" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1300</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>700</v>
       </c>
       <c r="AA52" s="3">
         <v>700</v>
@@ -4334,8 +4454,11 @@
       <c r="AE52" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4423,97 +4546,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1368800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1353000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1308000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1264500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1264700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1183800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1155000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1112200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1056400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>970900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>951800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>906600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>882500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>838300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>810400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>787400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>773800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>756100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>725200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>717200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>715200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>693600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>674800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>644200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>649100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>609700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>607300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>582100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4545,8 +4674,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4578,114 +4708,118 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E57" s="3">
         <v>28600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>26800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>42700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>44900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>43100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>42500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>27100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>29900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>24800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>29300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>20300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>25700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>24600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>23800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>19800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>25300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>25000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>24000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>16600</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>3100</v>
       </c>
       <c r="F58" s="3">
         <v>3100</v>
       </c>
       <c r="G58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H58" s="3">
         <v>700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>800</v>
       </c>
       <c r="I58" s="3">
         <v>800</v>
@@ -4694,426 +4828,441 @@
         <v>800</v>
       </c>
       <c r="K58" s="3">
+        <v>800</v>
+      </c>
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>2100</v>
       </c>
       <c r="O58" s="3">
         <v>2100</v>
       </c>
       <c r="P58" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="Q58" s="3">
         <v>2200</v>
       </c>
       <c r="R58" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="S58" s="3">
         <v>1900</v>
       </c>
       <c r="T58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U58" s="3">
         <v>20100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>20600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>40700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>42100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>25400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>27200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>7300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>6400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>6100</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>261500</v>
+      </c>
+      <c r="E59" s="3">
         <v>261900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>259600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>248500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>262700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>259000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>250300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>238200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>237500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>210200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>203100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>186000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>173200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>142200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>139900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>132900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>137900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>130400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>124100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>125100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>129000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>125600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>125300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>122500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>139700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>110100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>109800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>103100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>293400</v>
+        <v>305500</v>
       </c>
       <c r="E60" s="3">
         <v>293400</v>
       </c>
       <c r="F60" s="3">
+        <v>293400</v>
+      </c>
+      <c r="G60" s="3">
         <v>278400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>306100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>304700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>294200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>272800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>282300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>242200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>237100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>213300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>208200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>179100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>172100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>161800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>169700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>175300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>174000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>186100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>196700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>175600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>176300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>149300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>172100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>142400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>140200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>125800</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>133400</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E61" s="3">
         <v>7900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>33900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>33800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>51500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>53100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>51400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>51600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>51700</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E62" s="3">
         <v>27800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>19700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16200</v>
-      </c>
-      <c r="U62" s="3">
-        <v>7000</v>
       </c>
       <c r="V62" s="3">
         <v>7000</v>
       </c>
       <c r="W62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="X62" s="3">
         <v>8600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>7800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>11000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>11400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>21100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>20700</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5201,8 +5350,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5290,8 +5442,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5379,97 +5534,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>349500</v>
+      </c>
+      <c r="E66" s="3">
         <v>330200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>331700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>309000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>335700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>332200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>324500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>306000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>323300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>271800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>268200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>244800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>241800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>214200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>202800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>192100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>205700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>195600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>208100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>220500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>217900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>217700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>208600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>236100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>205200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>212900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>198100</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5501,8 +5662,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5590,8 +5752,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5679,8 +5844,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5768,8 +5936,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5857,97 +6028,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>957200</v>
+      </c>
+      <c r="E72" s="3">
         <v>915700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>869300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>822000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>762500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>688400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>628800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>575100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>495700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>458100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>431100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>405800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>386100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>371100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>355100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>343100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>322200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>301400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>280100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>260100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>246700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>231100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>209400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>187600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>166100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>160000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>148100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>137300</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6035,8 +6212,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6124,8 +6304,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6213,97 +6396,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1019300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1022800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>976300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>955500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>928900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>851600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>830500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>806200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>733100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>699100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>683600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>661700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>640700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>624000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>607600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>595300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>573000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>550300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>529600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>509100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>494700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>475700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>457100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>435600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>413000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>404400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>394400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>384000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>371000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6391,191 +6580,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E81" s="3">
         <v>46400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>47300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>59500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>74100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>59600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>53600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>79400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>37600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>25200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>20900</v>
       </c>
       <c r="S81" s="3">
         <v>20900</v>
       </c>
       <c r="T81" s="3">
+        <v>20900</v>
+      </c>
+      <c r="U81" s="3">
         <v>21300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>20000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>13400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>15600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>19700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>22100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>21400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>6200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>11800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>10900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>12300</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6607,34 +6805,35 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E83" s="3">
         <v>4600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1600</v>
       </c>
       <c r="L83" s="3">
         <v>1600</v>
@@ -6658,10 +6857,10 @@
         <v>1600</v>
       </c>
       <c r="S83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T83" s="3">
         <v>1400</v>
-      </c>
-      <c r="T83" s="3">
-        <v>1200</v>
       </c>
       <c r="U83" s="3">
         <v>1200</v>
@@ -6673,13 +6872,13 @@
         <v>1200</v>
       </c>
       <c r="X83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="Y83" s="3">
         <v>1100</v>
       </c>
       <c r="Z83" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="AA83" s="3">
         <v>1000</v>
@@ -6688,7 +6887,7 @@
         <v>1000</v>
       </c>
       <c r="AC83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AD83" s="3">
         <v>900</v>
@@ -6696,8 +6895,11 @@
       <c r="AE83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6785,8 +6987,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6874,8 +7079,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6963,8 +7171,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7052,8 +7263,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7141,97 +7355,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E89" s="3">
         <v>82300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>67200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>104700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>58200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>45900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>55800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>38900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>35700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>33400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>24700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>26800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>16500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>19900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>43400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>6700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>7000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>16000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>6400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7263,97 +7483,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-1900</v>
       </c>
       <c r="P91" s="3">
         <v>-1900</v>
       </c>
       <c r="Q91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R91" s="3">
         <v>-7900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5400</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-1200</v>
       </c>
       <c r="AA91" s="3">
         <v>-1200</v>
       </c>
       <c r="AB91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="AD91" s="3">
-        <v>-1200</v>
       </c>
       <c r="AE91" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7441,8 +7665,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7530,97 +7757,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E94" s="3">
         <v>2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>8200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-152400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-1600</v>
       </c>
       <c r="X94" s="3">
         <v>-1600</v>
       </c>
       <c r="Y94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Z94" s="3">
         <v>1900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1300</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7652,8 +7885,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7741,8 +7975,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7830,8 +8067,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7919,8 +8159,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8008,97 +8251,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-28300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-34600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-40200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-30800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-17200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-20600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-300</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8186,93 +8435,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E102" s="3">
         <v>82900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-102900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>38300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>95200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>38700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-102300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>38800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>34900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>25300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>24400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>13200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>18200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>47800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>6900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>12800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>4700</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>12500</v>
       </c>
     </row>
